--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>343606.4298059134</v>
+        <v>341768.214608732</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6742609.142433861</v>
+        <v>6742609.142433863</v>
       </c>
     </row>
     <row r="8">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="E20" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>73.00117972968179</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>77.20538669489343</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.67633314568958</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>82.88054011090124</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="W21" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>73.0011797296815</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.88054011090124</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>73.00117972968179</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="U24" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Y24" t="n">
-        <v>73.00117972968178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.88054011090124</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C25" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>82.88054011090124</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.00117972968151</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
     <row r="26">
@@ -2558,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="S26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75.05593188338555</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.82578795719726</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Y27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,28 +2713,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="I28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.67633314568958</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="W30" t="n">
-        <v>77.20538669489321</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>73.00117972968167</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>82.88054011090112</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
     <row r="32">
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V32" t="n">
-        <v>73.00117972968168</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="W32" t="n">
-        <v>82.88054011090112</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="X32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3156,22 +3156,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V33" t="n">
-        <v>73.00117972968168</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="W33" t="n">
-        <v>82.88054011090112</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="X33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,16 +3199,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>8.697622731470402</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="H35" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="I35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>73.00117972968168</v>
       </c>
-      <c r="V35" t="n">
-        <v>82.88054011090112</v>
-      </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>77.20538669489321</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.67633314568958</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
     <row r="37">
@@ -3433,19 +3433,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="G37" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="H37" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="I37" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="J37" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
         <v>73.00117972968168</v>
       </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
       <c r="T38" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="U38" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3585,22 +3585,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>75.05593188338555</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.82578795719726</v>
+        <v>77.20538669489326</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R40" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="S40" t="n">
-        <v>8.697622731470398</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>8.69762273147043</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="F41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>82.88054011090112</v>
+        <v>73.00117972968171</v>
       </c>
       <c r="H41" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
     <row r="42">
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="S42" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Y42" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.88054011090112</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="X43" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>257.783595060088</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="C20" t="n">
-        <v>257.783595060088</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="D20" t="n">
-        <v>257.783595060088</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E20" t="n">
-        <v>174.0658777763493</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F20" t="n">
-        <v>174.0658777763493</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G20" t="n">
-        <v>90.34816049261072</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H20" t="n">
-        <v>6.630443208872099</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I20" t="n">
-        <v>6.630443208872099</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J20" t="n">
-        <v>43.6983692857935</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K20" t="n">
-        <v>125.7501039955857</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="L20" t="n">
-        <v>167.4186910240205</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="M20" t="n">
-        <v>249.4704257338127</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N20" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O20" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P20" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R20" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S20" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T20" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U20" t="n">
-        <v>257.783595060088</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V20" t="n">
-        <v>257.783595060088</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W20" t="n">
-        <v>257.783595060088</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X20" t="n">
-        <v>257.783595060088</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Y20" t="n">
-        <v>257.783595060088</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>164.0867258761277</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C21" t="n">
-        <v>164.0867258761277</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D21" t="n">
-        <v>164.0867258761277</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E21" t="n">
-        <v>164.0867258761277</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F21" t="n">
-        <v>164.0867258761277</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G21" t="n">
-        <v>164.0867258761277</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H21" t="n">
-        <v>86.10148679037673</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I21" t="n">
-        <v>6.630443208872099</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J21" t="n">
         <v>35.01446635656757</v>
@@ -5838,43 +5838,43 @@
         <v>35.01446635656757</v>
       </c>
       <c r="M21" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="N21" t="n">
-        <v>85.36695631422823</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="O21" t="n">
-        <v>167.4186910240205</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P21" t="n">
-        <v>249.4704257338127</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="Q21" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R21" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S21" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T21" t="n">
-        <v>331.5221604436049</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="U21" t="n">
-        <v>331.5221604436049</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="V21" t="n">
-        <v>247.8044431598663</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="W21" t="n">
-        <v>164.0867258761277</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X21" t="n">
-        <v>164.0867258761277</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y21" t="n">
-        <v>164.0867258761277</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.804443159866</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="C22" t="n">
-        <v>247.804443159866</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D22" t="n">
-        <v>247.804443159866</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E22" t="n">
-        <v>247.804443159866</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F22" t="n">
-        <v>247.804443159866</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G22" t="n">
-        <v>164.0867258761274</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H22" t="n">
-        <v>90.34816049261072</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I22" t="n">
-        <v>6.630443208872099</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J22" t="n">
-        <v>6.630443208872099</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K22" t="n">
-        <v>14.6083927757154</v>
+        <v>14.60839277571539</v>
       </c>
       <c r="L22" t="n">
         <v>80.34385611233594</v>
@@ -5920,40 +5920,40 @@
         <v>160.0418085032467</v>
       </c>
       <c r="N22" t="n">
-        <v>242.093543213039</v>
+        <v>242.0935432130389</v>
       </c>
       <c r="O22" t="n">
-        <v>302.960578704356</v>
+        <v>302.9605787043558</v>
       </c>
       <c r="P22" t="n">
-        <v>331.5221604436047</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q22" t="n">
-        <v>331.5221604436047</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R22" t="n">
-        <v>331.5221604436047</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S22" t="n">
-        <v>331.5221604436047</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T22" t="n">
-        <v>331.5221604436047</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U22" t="n">
-        <v>331.5221604436047</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V22" t="n">
-        <v>331.5221604436047</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="W22" t="n">
-        <v>331.5221604436047</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="X22" t="n">
-        <v>247.804443159866</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.804443159866</v>
+        <v>80.36900859238898</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>90.34816049261072</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="C23" t="n">
-        <v>90.34816049261072</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="D23" t="n">
-        <v>90.34816049261072</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="E23" t="n">
-        <v>6.630443208872099</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="F23" t="n">
-        <v>6.630443208872099</v>
+        <v>247.804443159866</v>
       </c>
       <c r="G23" t="n">
-        <v>6.630443208872099</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="H23" t="n">
-        <v>6.630443208872099</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.630443208872099</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J23" t="n">
-        <v>6.630443208872099</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="K23" t="n">
-        <v>88.68217791866432</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="L23" t="n">
-        <v>88.68217791866432</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="M23" t="n">
-        <v>170.7339126284566</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="N23" t="n">
-        <v>252.7856473382488</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="O23" t="n">
-        <v>331.5221604436049</v>
+        <v>207.8018387053777</v>
       </c>
       <c r="P23" t="n">
-        <v>331.5221604436049</v>
+        <v>289.8535734151699</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R23" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S23" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T23" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U23" t="n">
-        <v>257.783595060088</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V23" t="n">
-        <v>174.0658777763493</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W23" t="n">
-        <v>90.34816049261072</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X23" t="n">
-        <v>90.34816049261072</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Y23" t="n">
-        <v>90.34816049261072</v>
+        <v>331.5221604436045</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>90.34816049261072</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C24" t="n">
-        <v>90.34816049261072</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D24" t="n">
-        <v>90.34816049261072</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E24" t="n">
-        <v>90.34816049261072</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F24" t="n">
-        <v>90.34816049261072</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G24" t="n">
-        <v>90.34816049261072</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H24" t="n">
-        <v>6.630443208872099</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I24" t="n">
-        <v>6.630443208872099</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J24" t="n">
-        <v>6.630443208872099</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="K24" t="n">
-        <v>6.630443208872099</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="L24" t="n">
-        <v>85.36695631422823</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="M24" t="n">
-        <v>85.36695631422823</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N24" t="n">
-        <v>85.36695631422823</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="O24" t="n">
-        <v>167.4186910240205</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P24" t="n">
-        <v>249.4704257338127</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q24" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R24" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S24" t="n">
-        <v>331.5221604436049</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T24" t="n">
-        <v>331.5221604436049</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="U24" t="n">
-        <v>247.8044431598663</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="V24" t="n">
-        <v>164.0867258761277</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="W24" t="n">
-        <v>164.0867258761277</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X24" t="n">
-        <v>164.0867258761277</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y24" t="n">
-        <v>90.34816049261072</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>174.0658777763493</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="C25" t="n">
-        <v>90.34816049261072</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="D25" t="n">
-        <v>6.630443208872099</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E25" t="n">
-        <v>6.630443208872099</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F25" t="n">
-        <v>6.630443208872099</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G25" t="n">
-        <v>6.630443208872099</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H25" t="n">
-        <v>6.630443208872099</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I25" t="n">
-        <v>6.630443208872099</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J25" t="n">
-        <v>6.630443208872099</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K25" t="n">
-        <v>14.6083927757154</v>
+        <v>14.60839277571539</v>
       </c>
       <c r="L25" t="n">
         <v>80.34385611233594</v>
@@ -6157,40 +6157,40 @@
         <v>160.0418085032467</v>
       </c>
       <c r="N25" t="n">
-        <v>242.093543213039</v>
+        <v>242.0935432130389</v>
       </c>
       <c r="O25" t="n">
-        <v>302.960578704356</v>
+        <v>302.9605787043558</v>
       </c>
       <c r="P25" t="n">
-        <v>331.5221604436047</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q25" t="n">
-        <v>331.5221604436047</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R25" t="n">
-        <v>331.5221604436047</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S25" t="n">
-        <v>331.5221604436047</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T25" t="n">
-        <v>331.5221604436047</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U25" t="n">
-        <v>331.5221604436047</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V25" t="n">
-        <v>331.5221604436047</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W25" t="n">
-        <v>331.5221604436047</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X25" t="n">
-        <v>331.5221604436047</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Y25" t="n">
-        <v>257.783595060088</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.3481604926106</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="C26" t="n">
-        <v>90.3481604926106</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="D26" t="n">
-        <v>6.63044320887209</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="E26" t="n">
-        <v>6.63044320887209</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F26" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G26" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H26" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I26" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J26" t="n">
-        <v>43.69836928579348</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="K26" t="n">
-        <v>85.36695631422812</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="L26" t="n">
-        <v>167.4186910240202</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="M26" t="n">
-        <v>249.4704257338124</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="N26" t="n">
-        <v>331.5221604436045</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="O26" t="n">
-        <v>331.5221604436045</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="P26" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="Q26" t="n">
         <v>331.5221604436045</v>
@@ -6251,25 +6251,25 @@
         <v>247.804443159866</v>
       </c>
       <c r="S26" t="n">
-        <v>164.0867258761274</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T26" t="n">
-        <v>90.3481604926106</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U26" t="n">
-        <v>90.3481604926106</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V26" t="n">
-        <v>90.3481604926106</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W26" t="n">
-        <v>90.3481604926106</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X26" t="n">
-        <v>90.3481604926106</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y26" t="n">
-        <v>90.3481604926106</v>
+        <v>164.0867258761275</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C27" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D27" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E27" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F27" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G27" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H27" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I27" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J27" t="n">
-        <v>35.01446635656757</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K27" t="n">
-        <v>117.0662010663597</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="L27" t="n">
-        <v>199.1179357761518</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="M27" t="n">
-        <v>281.1696704859439</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="N27" t="n">
-        <v>331.5221604436045</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="O27" t="n">
         <v>331.5221604436045</v>
@@ -6327,28 +6327,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R27" t="n">
-        <v>249.8799503858295</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S27" t="n">
-        <v>166.162233102091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T27" t="n">
-        <v>166.162233102091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U27" t="n">
-        <v>166.162233102091</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V27" t="n">
-        <v>166.162233102091</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="W27" t="n">
-        <v>166.162233102091</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="X27" t="n">
-        <v>166.162233102091</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="Y27" t="n">
-        <v>82.44451581835246</v>
+        <v>80.36900859238898</v>
       </c>
     </row>
     <row r="28">
@@ -6361,40 +6361,40 @@
         <v>247.804443159866</v>
       </c>
       <c r="C28" t="n">
-        <v>164.0867258761274</v>
+        <v>247.804443159866</v>
       </c>
       <c r="D28" t="n">
-        <v>164.0867258761274</v>
+        <v>247.804443159866</v>
       </c>
       <c r="E28" t="n">
-        <v>164.0867258761274</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="F28" t="n">
-        <v>164.0867258761274</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="G28" t="n">
-        <v>164.0867258761274</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="H28" t="n">
-        <v>164.0867258761274</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I28" t="n">
-        <v>80.36900859238894</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J28" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K28" t="n">
         <v>14.60839277571539</v>
       </c>
       <c r="L28" t="n">
-        <v>80.34385611233593</v>
+        <v>80.34385611233594</v>
       </c>
       <c r="M28" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N28" t="n">
-        <v>242.0935432130388</v>
+        <v>242.0935432130389</v>
       </c>
       <c r="O28" t="n">
         <v>302.9605787043558</v>
@@ -6409,7 +6409,7 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S28" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T28" t="n">
         <v>247.804443159866</v>
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.63044320887209</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="C29" t="n">
-        <v>6.63044320887209</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="D29" t="n">
-        <v>6.63044320887209</v>
+        <v>247.804443159866</v>
       </c>
       <c r="E29" t="n">
-        <v>6.63044320887209</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="F29" t="n">
-        <v>6.63044320887209</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="G29" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="H29" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I29" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J29" t="n">
-        <v>43.69836928579348</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="K29" t="n">
         <v>125.7501039955856</v>
       </c>
       <c r="L29" t="n">
-        <v>125.7501039955856</v>
+        <v>207.8018387053777</v>
       </c>
       <c r="M29" t="n">
-        <v>125.7501039955856</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="N29" t="n">
-        <v>207.8018387053777</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="O29" t="n">
-        <v>289.8535734151698</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="P29" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="Q29" t="n">
         <v>331.5221604436045</v>
@@ -6491,22 +6491,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="T29" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U29" t="n">
-        <v>164.0867258761274</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V29" t="n">
-        <v>164.0867258761274</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W29" t="n">
-        <v>164.0867258761274</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="X29" t="n">
-        <v>80.36900859238894</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.36900859238894</v>
+        <v>331.5221604436045</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>169.8192040741152</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C30" t="n">
-        <v>86.10148679037673</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D30" t="n">
-        <v>86.10148679037673</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E30" t="n">
-        <v>86.10148679037673</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F30" t="n">
-        <v>86.10148679037673</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G30" t="n">
-        <v>86.10148679037673</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H30" t="n">
-        <v>86.10148679037673</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I30" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J30" t="n">
         <v>35.01446635656757</v>
@@ -6552,10 +6552,10 @@
         <v>35.01446635656757</v>
       </c>
       <c r="N30" t="n">
-        <v>85.36695631422812</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="O30" t="n">
-        <v>167.4186910240202</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="P30" t="n">
         <v>249.4704257338124</v>
@@ -6567,25 +6567,25 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S30" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T30" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="U30" t="n">
-        <v>331.5221604436045</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="V30" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="W30" t="n">
-        <v>253.5369213578538</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="X30" t="n">
-        <v>169.8192040741152</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="Y30" t="n">
-        <v>169.8192040741152</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="31">
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.36900859238894</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C31" t="n">
-        <v>80.36900859238894</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="D31" t="n">
-        <v>80.36900859238894</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E31" t="n">
-        <v>80.36900859238894</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F31" t="n">
-        <v>80.36900859238894</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="G31" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H31" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I31" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J31" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K31" t="n">
         <v>14.60839277571539</v>
       </c>
       <c r="L31" t="n">
-        <v>80.34385611233593</v>
+        <v>80.34385611233594</v>
       </c>
       <c r="M31" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N31" t="n">
-        <v>242.0935432130388</v>
+        <v>242.0935432130389</v>
       </c>
       <c r="O31" t="n">
         <v>302.9605787043558</v>
@@ -6643,28 +6643,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R31" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S31" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T31" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U31" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V31" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="W31" t="n">
-        <v>164.0867258761274</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="X31" t="n">
-        <v>164.0867258761274</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="Y31" t="n">
-        <v>164.0867258761274</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C32" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D32" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E32" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F32" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G32" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H32" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I32" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J32" t="n">
-        <v>43.69836928579348</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="K32" t="n">
         <v>125.7501039955856</v>
       </c>
       <c r="L32" t="n">
-        <v>207.8018387053777</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="M32" t="n">
-        <v>249.4704257338124</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="N32" t="n">
-        <v>249.4704257338124</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4704257338124</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="P32" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="Q32" t="n">
         <v>331.5221604436045</v>
@@ -6728,22 +6728,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="T32" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U32" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="V32" t="n">
-        <v>257.7835950600876</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="W32" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="X32" t="n">
-        <v>90.3481604926106</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C33" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D33" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E33" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F33" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G33" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H33" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I33" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J33" t="n">
-        <v>6.63044320887209</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="K33" t="n">
-        <v>88.68217791866421</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L33" t="n">
-        <v>170.7339126284563</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="M33" t="n">
-        <v>170.7339126284563</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="N33" t="n">
-        <v>170.7339126284563</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="O33" t="n">
-        <v>170.7339126284563</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P33" t="n">
-        <v>252.7856473382485</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="Q33" t="n">
         <v>331.5221604436045</v>
@@ -6810,19 +6810,19 @@
         <v>247.804443159866</v>
       </c>
       <c r="U33" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="V33" t="n">
-        <v>174.0658777763491</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="W33" t="n">
-        <v>90.3481604926106</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="X33" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="Y33" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="34">
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.41592071540785</v>
+        <v>247.804443159866</v>
       </c>
       <c r="C34" t="n">
-        <v>15.41592071540785</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="D34" t="n">
-        <v>15.41592071540785</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="E34" t="n">
-        <v>15.41592071540785</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="F34" t="n">
-        <v>15.41592071540785</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="G34" t="n">
-        <v>15.41592071540785</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="H34" t="n">
-        <v>15.41592071540785</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I34" t="n">
-        <v>15.41592071540785</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J34" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K34" t="n">
-        <v>14.60839277571537</v>
+        <v>14.60839277571539</v>
       </c>
       <c r="L34" t="n">
-        <v>80.34385611233593</v>
+        <v>80.34385611233594</v>
       </c>
       <c r="M34" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N34" t="n">
-        <v>242.0935432130388</v>
+        <v>242.0935432130389</v>
       </c>
       <c r="O34" t="n">
         <v>302.9605787043558</v>
@@ -6877,31 +6877,31 @@
         <v>331.5221604436045</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R34" t="n">
-        <v>182.8513552828849</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S34" t="n">
-        <v>99.13363799914636</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T34" t="n">
-        <v>99.13363799914636</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U34" t="n">
-        <v>99.13363799914636</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V34" t="n">
-        <v>99.13363799914636</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W34" t="n">
-        <v>15.41592071540785</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X34" t="n">
-        <v>15.41592071540785</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.41592071540785</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="35">
@@ -6926,34 +6926,34 @@
         <v>174.0658777763491</v>
       </c>
       <c r="G35" t="n">
-        <v>174.0658777763491</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="H35" t="n">
-        <v>90.3481604926106</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I35" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J35" t="n">
-        <v>43.69836928579348</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="K35" t="n">
-        <v>85.36695631422812</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="L35" t="n">
-        <v>167.4186910240202</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="M35" t="n">
-        <v>249.4704257338124</v>
+        <v>207.8018387053777</v>
       </c>
       <c r="N35" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="O35" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="P35" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="Q35" t="n">
         <v>331.5221604436045</v>
@@ -6968,10 +6968,10 @@
         <v>331.5221604436045</v>
       </c>
       <c r="U35" t="n">
-        <v>257.7835950600876</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="V35" t="n">
-        <v>174.0658777763491</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="W35" t="n">
         <v>174.0658777763491</v>
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C36" t="n">
-        <v>247.804443159866</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D36" t="n">
-        <v>247.804443159866</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E36" t="n">
-        <v>164.0867258761274</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F36" t="n">
-        <v>164.0867258761274</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G36" t="n">
-        <v>164.0867258761274</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H36" t="n">
-        <v>86.10148679037673</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I36" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J36" t="n">
         <v>35.01446635656757</v>
       </c>
       <c r="K36" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L36" t="n">
-        <v>117.0662010663597</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="M36" t="n">
-        <v>167.4186910240202</v>
+        <v>281.1696704859439</v>
       </c>
       <c r="N36" t="n">
-        <v>249.4704257338124</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O36" t="n">
         <v>331.5221604436045</v>
@@ -7047,19 +7047,19 @@
         <v>331.5221604436045</v>
       </c>
       <c r="U36" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="V36" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="W36" t="n">
-        <v>331.5221604436045</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X36" t="n">
-        <v>331.5221604436045</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y36" t="n">
-        <v>331.5221604436045</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="37">
@@ -7081,31 +7081,31 @@
         <v>331.5221604436045</v>
       </c>
       <c r="F37" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="G37" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="H37" t="n">
-        <v>164.0867258761274</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="I37" t="n">
-        <v>80.36900859238894</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J37" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K37" t="n">
-        <v>14.60839277571539</v>
+        <v>14.60839277571537</v>
       </c>
       <c r="L37" t="n">
-        <v>80.34385611233593</v>
+        <v>80.34385611233591</v>
       </c>
       <c r="M37" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N37" t="n">
-        <v>242.0935432130388</v>
+        <v>242.0935432130389</v>
       </c>
       <c r="O37" t="n">
         <v>302.9605787043558</v>
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>90.3481604926106</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="C38" t="n">
-        <v>6.63044320887209</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="D38" t="n">
-        <v>6.63044320887209</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="E38" t="n">
-        <v>6.63044320887209</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="F38" t="n">
-        <v>6.63044320887209</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="G38" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H38" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I38" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J38" t="n">
-        <v>6.63044320887209</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="K38" t="n">
-        <v>85.36695631422812</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="L38" t="n">
-        <v>167.4186910240202</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="M38" t="n">
         <v>249.4704257338124</v>
@@ -7196,28 +7196,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R38" t="n">
-        <v>257.7835950600876</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S38" t="n">
-        <v>257.7835950600876</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="T38" t="n">
         <v>174.0658777763491</v>
       </c>
       <c r="U38" t="n">
-        <v>90.3481604926106</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="V38" t="n">
-        <v>90.3481604926106</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="W38" t="n">
-        <v>90.3481604926106</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="X38" t="n">
-        <v>90.3481604926106</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y38" t="n">
-        <v>90.3481604926106</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.162233102091</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="C39" t="n">
-        <v>166.162233102091</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="D39" t="n">
-        <v>82.44451581835246</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="E39" t="n">
-        <v>82.44451581835246</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="F39" t="n">
-        <v>6.63044320887209</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="G39" t="n">
-        <v>6.63044320887209</v>
+        <v>169.8192040741152</v>
       </c>
       <c r="H39" t="n">
-        <v>6.63044320887209</v>
+        <v>86.10148679037673</v>
       </c>
       <c r="I39" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J39" t="n">
         <v>35.01446635656757</v>
       </c>
       <c r="K39" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L39" t="n">
         <v>117.0662010663597</v>
       </c>
       <c r="M39" t="n">
-        <v>199.1179357761518</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="N39" t="n">
-        <v>199.1179357761518</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="O39" t="n">
+        <v>167.4186910240203</v>
+      </c>
+      <c r="P39" t="n">
         <v>249.4704257338124</v>
-      </c>
-      <c r="P39" t="n">
-        <v>331.5221604436045</v>
       </c>
       <c r="Q39" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R39" t="n">
-        <v>249.8799503858295</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="S39" t="n">
-        <v>249.8799503858295</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="T39" t="n">
-        <v>249.8799503858295</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="U39" t="n">
-        <v>249.8799503858295</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="V39" t="n">
-        <v>249.8799503858295</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="W39" t="n">
-        <v>249.8799503858295</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="X39" t="n">
-        <v>249.8799503858295</v>
+        <v>253.5369213578538</v>
       </c>
       <c r="Y39" t="n">
-        <v>166.162233102091</v>
+        <v>253.5369213578538</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C40" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D40" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E40" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F40" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G40" t="n">
-        <v>90.3481604926106</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H40" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I40" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J40" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K40" t="n">
         <v>14.60839277571539</v>
       </c>
       <c r="L40" t="n">
-        <v>80.34385611233593</v>
+        <v>80.34385611233594</v>
       </c>
       <c r="M40" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N40" t="n">
-        <v>242.0935432130388</v>
+        <v>242.0935432130389</v>
       </c>
       <c r="O40" t="n">
         <v>302.9605787043558</v>
@@ -7357,25 +7357,25 @@
         <v>182.8513552828849</v>
       </c>
       <c r="S40" t="n">
-        <v>174.0658777763491</v>
+        <v>182.8513552828849</v>
       </c>
       <c r="T40" t="n">
-        <v>174.0658777763491</v>
+        <v>182.8513552828849</v>
       </c>
       <c r="U40" t="n">
-        <v>174.0658777763491</v>
+        <v>99.1336379991464</v>
       </c>
       <c r="V40" t="n">
-        <v>174.0658777763491</v>
+        <v>15.41592071540788</v>
       </c>
       <c r="W40" t="n">
-        <v>174.0658777763491</v>
+        <v>15.41592071540788</v>
       </c>
       <c r="X40" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="Y40" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="C41" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="D41" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761275</v>
       </c>
       <c r="E41" t="n">
-        <v>247.804443159866</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="F41" t="n">
-        <v>164.0867258761274</v>
+        <v>80.36900859238898</v>
       </c>
       <c r="G41" t="n">
-        <v>80.36900859238894</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H41" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I41" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J41" t="n">
-        <v>43.69836928579348</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="K41" t="n">
-        <v>43.69836928579348</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="L41" t="n">
-        <v>43.69836928579348</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="M41" t="n">
-        <v>43.69836928579348</v>
+        <v>43.6983692857935</v>
       </c>
       <c r="N41" t="n">
         <v>115.094676728219</v>
       </c>
       <c r="O41" t="n">
-        <v>197.1464114380111</v>
+        <v>197.1464114380112</v>
       </c>
       <c r="P41" t="n">
-        <v>279.1981461478032</v>
+        <v>279.1981461478033</v>
       </c>
       <c r="Q41" t="n">
         <v>331.5221604436045</v>
@@ -7454,7 +7454,7 @@
         <v>331.5221604436045</v>
       </c>
       <c r="Y41" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C42" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D42" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E42" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F42" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G42" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H42" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I42" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J42" t="n">
         <v>35.01446635656757</v>
       </c>
       <c r="K42" t="n">
-        <v>117.0662010663597</v>
+        <v>85.36695631422816</v>
       </c>
       <c r="L42" t="n">
-        <v>199.1179357761518</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="M42" t="n">
-        <v>281.1696704859439</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="N42" t="n">
-        <v>331.5221604436045</v>
+        <v>167.4186910240203</v>
       </c>
       <c r="O42" t="n">
-        <v>331.5221604436045</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P42" t="n">
-        <v>331.5221604436045</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="Q42" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R42" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="S42" t="n">
-        <v>257.7835950600876</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="T42" t="n">
+        <v>257.7835950600877</v>
+      </c>
+      <c r="U42" t="n">
+        <v>257.7835950600877</v>
+      </c>
+      <c r="V42" t="n">
+        <v>257.7835950600877</v>
+      </c>
+      <c r="W42" t="n">
         <v>174.0658777763491</v>
       </c>
-      <c r="U42" t="n">
-        <v>174.0658777763491</v>
-      </c>
-      <c r="V42" t="n">
-        <v>174.0658777763491</v>
-      </c>
-      <c r="W42" t="n">
-        <v>90.3481604926106</v>
-      </c>
       <c r="X42" t="n">
-        <v>90.3481604926106</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y42" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="C43" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="D43" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="E43" t="n">
-        <v>174.0658777763491</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="F43" t="n">
-        <v>90.3481604926106</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="G43" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="H43" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="I43" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="J43" t="n">
-        <v>6.63044320887209</v>
+        <v>6.630443208872091</v>
       </c>
       <c r="K43" t="n">
         <v>14.60839277571539</v>
       </c>
       <c r="L43" t="n">
-        <v>80.34385611233593</v>
+        <v>80.34385611233594</v>
       </c>
       <c r="M43" t="n">
         <v>160.0418085032467</v>
       </c>
       <c r="N43" t="n">
-        <v>242.0935432130388</v>
+        <v>242.0935432130389</v>
       </c>
       <c r="O43" t="n">
         <v>302.9605787043558</v>
@@ -7600,19 +7600,19 @@
         <v>331.5221604436045</v>
       </c>
       <c r="U43" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600877</v>
       </c>
       <c r="V43" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="W43" t="n">
-        <v>247.804443159866</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="X43" t="n">
-        <v>174.0658777763491</v>
+        <v>90.34816049261062</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.0658777763491</v>
+        <v>90.34816049261062</v>
       </c>
     </row>
     <row r="44">
@@ -8702,7 +8702,7 @@
         <v>125.5756154705403</v>
       </c>
       <c r="O11" t="n">
-        <v>132.0474536396229</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P11" t="n">
         <v>147.5489424727328</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.42030488819118</v>
+        <v>97.42030488819117</v>
       </c>
       <c r="K12" t="n">
-        <v>87.56255053286915</v>
+        <v>87.56255053286914</v>
       </c>
       <c r="L12" t="n">
-        <v>70.94820947007287</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M12" t="n">
-        <v>63.24082194752643</v>
+        <v>63.24082194752641</v>
       </c>
       <c r="N12" t="n">
-        <v>50.36043154195551</v>
+        <v>50.36043154195549</v>
       </c>
       <c r="O12" t="n">
-        <v>68.51419372642016</v>
+        <v>68.51419372642015</v>
       </c>
       <c r="P12" t="n">
-        <v>74.51703052415492</v>
+        <v>74.5170305241549</v>
       </c>
       <c r="Q12" t="n">
         <v>100.2360922216349</v>
@@ -8851,16 +8851,16 @@
         <v>98.68523142864919</v>
       </c>
       <c r="L13" t="n">
-        <v>96.0752436257761</v>
+        <v>96.07524362577608</v>
       </c>
       <c r="M13" t="n">
         <v>98.00667869640446</v>
       </c>
       <c r="N13" t="n">
-        <v>87.73940407820889</v>
+        <v>87.73940407820888</v>
       </c>
       <c r="O13" t="n">
-        <v>101.5598123342492</v>
+        <v>101.5598123342491</v>
       </c>
       <c r="P13" t="n">
         <v>106.1564807491434</v>
@@ -8939,7 +8939,7 @@
         <v>125.5756154705403</v>
       </c>
       <c r="O14" t="n">
-        <v>132.0474536396229</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P14" t="n">
         <v>147.5489424727328</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.42030488819118</v>
+        <v>97.42030488819117</v>
       </c>
       <c r="K15" t="n">
-        <v>87.56255053286915</v>
+        <v>87.56255053286914</v>
       </c>
       <c r="L15" t="n">
-        <v>70.94820947007287</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M15" t="n">
-        <v>63.24082194752643</v>
+        <v>63.24082194752641</v>
       </c>
       <c r="N15" t="n">
-        <v>50.36043154195551</v>
+        <v>50.36043154195549</v>
       </c>
       <c r="O15" t="n">
-        <v>68.51419372642016</v>
+        <v>68.51419372642015</v>
       </c>
       <c r="P15" t="n">
-        <v>74.51703052415492</v>
+        <v>74.5170305241549</v>
       </c>
       <c r="Q15" t="n">
         <v>100.2360922216349</v>
@@ -9088,16 +9088,16 @@
         <v>98.68523142864919</v>
       </c>
       <c r="L16" t="n">
-        <v>96.0752436257761</v>
+        <v>96.07524362577608</v>
       </c>
       <c r="M16" t="n">
         <v>98.00667869640446</v>
       </c>
       <c r="N16" t="n">
-        <v>87.73940407820889</v>
+        <v>87.73940407820888</v>
       </c>
       <c r="O16" t="n">
-        <v>101.5598123342492</v>
+        <v>101.5598123342491</v>
       </c>
       <c r="P16" t="n">
         <v>106.1564807491434</v>
@@ -9176,7 +9176,7 @@
         <v>125.5756154705403</v>
       </c>
       <c r="O17" t="n">
-        <v>132.0474536396229</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P17" t="n">
         <v>147.5489424727328</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.42030488819118</v>
+        <v>97.42030488819117</v>
       </c>
       <c r="K18" t="n">
-        <v>87.56255053286915</v>
+        <v>87.56255053286914</v>
       </c>
       <c r="L18" t="n">
-        <v>70.94820947007287</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M18" t="n">
-        <v>63.24082194752643</v>
+        <v>63.24082194752641</v>
       </c>
       <c r="N18" t="n">
-        <v>50.36043154195551</v>
+        <v>50.36043154195549</v>
       </c>
       <c r="O18" t="n">
-        <v>68.51419372642016</v>
+        <v>68.51419372642015</v>
       </c>
       <c r="P18" t="n">
-        <v>74.51703052415492</v>
+        <v>74.5170305241549</v>
       </c>
       <c r="Q18" t="n">
         <v>100.2360922216349</v>
@@ -9325,16 +9325,16 @@
         <v>98.68523142864919</v>
       </c>
       <c r="L19" t="n">
-        <v>96.0752436257761</v>
+        <v>96.07524362577608</v>
       </c>
       <c r="M19" t="n">
         <v>98.00667869640446</v>
       </c>
       <c r="N19" t="n">
-        <v>87.73940407820889</v>
+        <v>87.73940407820888</v>
       </c>
       <c r="O19" t="n">
-        <v>101.5598123342492</v>
+        <v>101.5598123342491</v>
       </c>
       <c r="P19" t="n">
         <v>106.1564807491434</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>131.6542655994259</v>
       </c>
       <c r="K20" t="n">
-        <v>228.9451278654828</v>
+        <v>225.5964191741331</v>
       </c>
       <c r="L20" t="n">
-        <v>186.0210119436099</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M20" t="n">
-        <v>211.0427692287018</v>
+        <v>211.0427692287017</v>
       </c>
       <c r="N20" t="n">
-        <v>208.4561555814415</v>
+        <v>208.4561555814414</v>
       </c>
       <c r="O20" t="n">
-        <v>132.0474536396229</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P20" t="n">
         <v>147.5489424727328</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>87.56255053286915</v>
+        <v>87.56255053286914</v>
       </c>
       <c r="L21" t="n">
-        <v>70.94820947007287</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M21" t="n">
-        <v>63.24082194752643</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N21" t="n">
-        <v>101.2215325092895</v>
+        <v>133.2409716528566</v>
       </c>
       <c r="O21" t="n">
-        <v>151.3947338373214</v>
+        <v>119.3752946937541</v>
       </c>
       <c r="P21" t="n">
-        <v>157.3975706350561</v>
+        <v>74.5170305241549</v>
       </c>
       <c r="Q21" t="n">
-        <v>183.1166323325362</v>
+        <v>183.1166323325361</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9568,7 +9568,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>170.6199441891101</v>
+        <v>170.61994418911</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>131.6542655994259</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>228.9451278654828</v>
+        <v>146.0645877545816</v>
       </c>
       <c r="L23" t="n">
-        <v>143.9315300967061</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M23" t="n">
-        <v>211.0427692287018</v>
+        <v>128.1622291178006</v>
       </c>
       <c r="N23" t="n">
-        <v>208.4561555814415</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O23" t="n">
-        <v>211.5792850591745</v>
+        <v>214.927993750524</v>
       </c>
       <c r="P23" t="n">
-        <v>147.5489424727328</v>
+        <v>230.4294825836339</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.4624509671762</v>
+        <v>201.5519328140799</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.42030488819118</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>87.56255053286915</v>
+        <v>138.4236515002031</v>
       </c>
       <c r="L24" t="n">
-        <v>150.4800408896245</v>
+        <v>153.828749580974</v>
       </c>
       <c r="M24" t="n">
-        <v>63.24082194752643</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N24" t="n">
-        <v>50.36043154195551</v>
+        <v>50.36043154195549</v>
       </c>
       <c r="O24" t="n">
-        <v>151.3947338373214</v>
+        <v>68.51419372642015</v>
       </c>
       <c r="P24" t="n">
-        <v>157.3975706350561</v>
+        <v>157.397570635056</v>
       </c>
       <c r="Q24" t="n">
-        <v>183.1166323325362</v>
+        <v>100.2360922216349</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9805,7 +9805,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>170.6199441891101</v>
+        <v>170.61994418911</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9875,25 +9875,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>188.1540696014852</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L26" t="n">
-        <v>226.8120702076072</v>
+        <v>216.0490123617824</v>
       </c>
       <c r="M26" t="n">
-        <v>211.0427692287017</v>
+        <v>128.1622291178006</v>
       </c>
       <c r="N26" t="n">
-        <v>208.4561555814414</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O26" t="n">
-        <v>132.0474536396229</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P26" t="n">
-        <v>147.5489424727328</v>
+        <v>230.4294825836339</v>
       </c>
       <c r="Q26" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.42030488819117</v>
       </c>
       <c r="K27" t="n">
-        <v>170.4430906437703</v>
+        <v>87.56255053286914</v>
       </c>
       <c r="L27" t="n">
-        <v>153.828749580974</v>
+        <v>150.4800408896244</v>
       </c>
       <c r="M27" t="n">
         <v>146.1213620584276</v>
       </c>
       <c r="N27" t="n">
-        <v>101.2215325092894</v>
+        <v>133.2409716528566</v>
       </c>
       <c r="O27" t="n">
-        <v>68.51419372642016</v>
+        <v>151.3947338373213</v>
       </c>
       <c r="P27" t="n">
-        <v>74.51703052415492</v>
+        <v>74.5170305241549</v>
       </c>
       <c r="Q27" t="n">
         <v>100.2360922216349</v>
@@ -10115,22 +10115,22 @@
         <v>228.9451278654827</v>
       </c>
       <c r="L29" t="n">
-        <v>143.9315300967061</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M29" t="n">
-        <v>128.1622291178006</v>
+        <v>200.2797113828769</v>
       </c>
       <c r="N29" t="n">
-        <v>208.4561555814414</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O29" t="n">
-        <v>214.927993750524</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P29" t="n">
-        <v>189.6384243196365</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q29" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>87.56255053286915</v>
+        <v>87.56255053286914</v>
       </c>
       <c r="L30" t="n">
-        <v>70.94820947007287</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M30" t="n">
-        <v>63.24082194752643</v>
+        <v>63.24082194752641</v>
       </c>
       <c r="N30" t="n">
-        <v>101.2215325092894</v>
+        <v>133.2409716528566</v>
       </c>
       <c r="O30" t="n">
-        <v>151.3947338373213</v>
+        <v>119.3752946937541</v>
       </c>
       <c r="P30" t="n">
         <v>157.397570635056</v>
@@ -10352,22 +10352,22 @@
         <v>228.9451278654827</v>
       </c>
       <c r="L32" t="n">
-        <v>226.8120702076072</v>
+        <v>216.0490123617824</v>
       </c>
       <c r="M32" t="n">
-        <v>170.2517109647043</v>
+        <v>128.1622291178006</v>
       </c>
       <c r="N32" t="n">
         <v>125.5756154705403</v>
       </c>
       <c r="O32" t="n">
-        <v>132.0474536396229</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P32" t="n">
         <v>230.4294825836339</v>
       </c>
       <c r="Q32" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.42030488819118</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>170.4430906437703</v>
       </c>
       <c r="L33" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M33" t="n">
-        <v>63.24082194752643</v>
+        <v>63.24082194752641</v>
       </c>
       <c r="N33" t="n">
-        <v>50.36043154195551</v>
+        <v>101.2215325092894</v>
       </c>
       <c r="O33" t="n">
-        <v>68.51419372642016</v>
+        <v>151.3947338373213</v>
       </c>
       <c r="P33" t="n">
-        <v>157.397570635056</v>
+        <v>74.5170305241549</v>
       </c>
       <c r="Q33" t="n">
-        <v>179.7679236411865</v>
+        <v>183.1166323325361</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>188.1540696014852</v>
+        <v>146.0645877545816</v>
       </c>
       <c r="L35" t="n">
         <v>226.8120702076072</v>
@@ -10595,16 +10595,16 @@
         <v>211.0427692287017</v>
       </c>
       <c r="N35" t="n">
-        <v>208.4561555814414</v>
+        <v>197.6930977356166</v>
       </c>
       <c r="O35" t="n">
-        <v>132.0474536396229</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P35" t="n">
         <v>147.5489424727328</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>87.56255053286915</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L36" t="n">
         <v>153.828749580974</v>
       </c>
       <c r="M36" t="n">
-        <v>114.1019229148603</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N36" t="n">
-        <v>133.2409716528566</v>
+        <v>101.2215325092895</v>
       </c>
       <c r="O36" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642015</v>
       </c>
       <c r="P36" t="n">
-        <v>74.51703052415492</v>
+        <v>74.5170305241549</v>
       </c>
       <c r="Q36" t="n">
         <v>100.2360922216349</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>131.6542655994259</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>225.5964191741331</v>
+        <v>188.1540696014853</v>
       </c>
       <c r="L38" t="n">
         <v>226.8120702076072</v>
@@ -10835,7 +10835,7 @@
         <v>208.4561555814414</v>
       </c>
       <c r="O38" t="n">
-        <v>132.0474536396229</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P38" t="n">
         <v>147.5489424727328</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>87.56255053286915</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L39" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M39" t="n">
-        <v>146.1213620584276</v>
+        <v>63.24082194752641</v>
       </c>
       <c r="N39" t="n">
-        <v>50.36043154195551</v>
+        <v>50.36043154195549</v>
       </c>
       <c r="O39" t="n">
         <v>119.3752946937541</v>
@@ -10920,7 +10920,7 @@
         <v>157.397570635056</v>
       </c>
       <c r="Q39" t="n">
-        <v>100.2360922216349</v>
+        <v>183.1166323325361</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>170.4430906437703</v>
+        <v>138.4236515002031</v>
       </c>
       <c r="L42" t="n">
         <v>153.828749580974</v>
       </c>
       <c r="M42" t="n">
-        <v>146.1213620584276</v>
+        <v>63.24082194752641</v>
       </c>
       <c r="N42" t="n">
-        <v>101.2215325092894</v>
+        <v>50.36043154195549</v>
       </c>
       <c r="O42" t="n">
-        <v>68.51419372642016</v>
+        <v>151.3947338373213</v>
       </c>
       <c r="P42" t="n">
-        <v>74.51703052415492</v>
+        <v>74.5170305241549</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.2360922216349</v>
+        <v>183.1166323325361</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11309,7 +11309,7 @@
         <v>125.5756154705403</v>
       </c>
       <c r="O44" t="n">
-        <v>132.0474536396229</v>
+        <v>132.0474536396228</v>
       </c>
       <c r="P44" t="n">
         <v>147.5489424727328</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.42030488819118</v>
+        <v>97.42030488819117</v>
       </c>
       <c r="K45" t="n">
-        <v>87.56255053286915</v>
+        <v>87.56255053286914</v>
       </c>
       <c r="L45" t="n">
-        <v>70.94820947007287</v>
+        <v>70.94820947007285</v>
       </c>
       <c r="M45" t="n">
-        <v>63.24082194752643</v>
+        <v>63.24082194752641</v>
       </c>
       <c r="N45" t="n">
-        <v>50.36043154195551</v>
+        <v>50.36043154195549</v>
       </c>
       <c r="O45" t="n">
-        <v>68.51419372642016</v>
+        <v>68.51419372642015</v>
       </c>
       <c r="P45" t="n">
-        <v>74.51703052415492</v>
+        <v>74.5170305241549</v>
       </c>
       <c r="Q45" t="n">
         <v>100.2360922216349</v>
@@ -11458,16 +11458,16 @@
         <v>98.68523142864919</v>
       </c>
       <c r="L46" t="n">
-        <v>96.0752436257761</v>
+        <v>96.07524362577608</v>
       </c>
       <c r="M46" t="n">
         <v>98.00667869640446</v>
       </c>
       <c r="N46" t="n">
-        <v>87.73940407820889</v>
+        <v>87.73940407820888</v>
       </c>
       <c r="O46" t="n">
-        <v>101.5598123342492</v>
+        <v>101.5598123342491</v>
       </c>
       <c r="P46" t="n">
         <v>106.1564807491434</v>
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>299.8533015525794</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>292.2717120413258</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>271.8025015097818</v>
       </c>
       <c r="E20" t="n">
-        <v>299.0498299613606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>331.8402549434935</v>
+        <v>414.7207950543947</v>
       </c>
       <c r="H20" t="n">
-        <v>250.6344437788089</v>
+        <v>333.5149838897102</v>
       </c>
       <c r="I20" t="n">
         <v>188.040552852714</v>
@@ -24023,7 +24023,7 @@
         <v>220.5483964422405</v>
       </c>
       <c r="U20" t="n">
-        <v>178.2979177812955</v>
+        <v>251.2990975109773</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>303.3573985451525</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>89.8279588774146</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24063,10 +24063,10 @@
         <v>137.0321504965985</v>
       </c>
       <c r="H21" t="n">
-        <v>32.02291105090143</v>
+        <v>109.2282977457949</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24099,19 +24099,19 @@
         <v>165.8996718358445</v>
       </c>
       <c r="T21" t="n">
-        <v>198.9097025254507</v>
+        <v>125.908522795769</v>
       </c>
       <c r="U21" t="n">
         <v>225.9208974318556</v>
       </c>
       <c r="V21" t="n">
-        <v>149.920047038524</v>
+        <v>149.9200470385241</v>
       </c>
       <c r="W21" t="n">
-        <v>168.8144430500184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>122.8924450925763</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>94.24564136894612</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>84.84939989375412</v>
+        <v>167.7299400046554</v>
       </c>
       <c r="H22" t="n">
-        <v>86.90511561394237</v>
+        <v>159.9062953436239</v>
       </c>
       <c r="I22" t="n">
-        <v>64.71976952197836</v>
+        <v>147.6003096328796</v>
       </c>
       <c r="J22" t="n">
         <v>74.90369780277223</v>
@@ -24178,19 +24178,19 @@
         <v>219.4673940256893</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8302394620306</v>
+        <v>143.9496993511295</v>
       </c>
       <c r="U22" t="n">
         <v>286.3047908462834</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>169.2571032129269</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>142.8291152781359</v>
+        <v>142.829115278136</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>299.0498299613606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>323.9955056308103</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7207950543947</v>
+        <v>331.8402549434936</v>
       </c>
       <c r="H23" t="n">
-        <v>333.5149838897102</v>
+        <v>250.634443778809</v>
       </c>
       <c r="I23" t="n">
-        <v>188.040552852714</v>
+        <v>115.0393731230323</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,13 +24260,13 @@
         <v>220.5483964422405</v>
       </c>
       <c r="U23" t="n">
-        <v>178.2979177812955</v>
+        <v>251.2990975109773</v>
       </c>
       <c r="V23" t="n">
-        <v>244.8717183592337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>266.3604286065118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>89.8279588774146</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24300,7 +24300,7 @@
         <v>137.0321504965985</v>
       </c>
       <c r="H24" t="n">
-        <v>26.34775763489363</v>
+        <v>109.2282977457949</v>
       </c>
       <c r="I24" t="n">
         <v>78.67633314568958</v>
@@ -24336,22 +24336,22 @@
         <v>165.8996718358445</v>
       </c>
       <c r="T24" t="n">
-        <v>198.9097025254507</v>
+        <v>125.908522795769</v>
       </c>
       <c r="U24" t="n">
-        <v>143.0403573209543</v>
+        <v>225.9208974318556</v>
       </c>
       <c r="V24" t="n">
-        <v>149.920047038524</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>168.8144430500185</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>122.8924450925763</v>
       </c>
       <c r="Y24" t="n">
-        <v>132.6815160476226</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.95144007103606</v>
+        <v>96.95144007103616</v>
       </c>
       <c r="C25" t="n">
-        <v>84.3662809877266</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>65.73493290731112</v>
+        <v>75.61429328853065</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.55342253566803</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>145.5834736224133</v>
+        <v>135.7041132411937</v>
       </c>
     </row>
     <row r="26">
@@ -24446,13 +24446,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>271.8025015097818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>308.9291903425801</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>323.9955056308103</v>
       </c>
       <c r="G26" t="n">
         <v>414.7207950543947</v>
@@ -24488,13 +24488,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>30.4331347307682</v>
+        <v>30.43313473076819</v>
       </c>
       <c r="S26" t="n">
-        <v>112.8785156512237</v>
+        <v>195.7590557621249</v>
       </c>
       <c r="T26" t="n">
-        <v>147.5472167125588</v>
+        <v>220.5483964422405</v>
       </c>
       <c r="U26" t="n">
         <v>251.2990975109773</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>303.3573985451525</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>91.47725176648179</v>
+        <v>93.53200392018563</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.82578795719726</v>
       </c>
       <c r="S27" t="n">
-        <v>83.01913172494339</v>
+        <v>83.01913172494338</v>
       </c>
       <c r="T27" t="n">
         <v>198.9097025254507</v>
@@ -24579,16 +24579,16 @@
         <v>225.9208974318556</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>149.9200470385241</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>122.8924450925763</v>
       </c>
       <c r="Y27" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24601,28 +24601,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>84.36628098772671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.55342253566803</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7299400046554</v>
+        <v>84.84939989375422</v>
       </c>
       <c r="H28" t="n">
-        <v>159.9062953436239</v>
+        <v>86.90511561394216</v>
       </c>
       <c r="I28" t="n">
-        <v>64.71976952197848</v>
+        <v>147.6003096328796</v>
       </c>
       <c r="J28" t="n">
-        <v>1.902518073090562</v>
+        <v>74.90369780277223</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>165.5561127961547</v>
       </c>
       <c r="S28" t="n">
-        <v>136.5868539147882</v>
+        <v>219.4673940256893</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8302394620306</v>
+        <v>143.9496993511295</v>
       </c>
       <c r="U28" t="n">
         <v>286.3047908462834</v>
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>309.7326619337989</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>271.8025015097818</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>299.0498299613606</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7207950543947</v>
+        <v>331.8402549434936</v>
       </c>
       <c r="H29" t="n">
-        <v>333.5149838897102</v>
+        <v>260.5138041600284</v>
       </c>
       <c r="I29" t="n">
         <v>188.040552852714</v>
@@ -24731,10 +24731,10 @@
         <v>195.7590557621249</v>
       </c>
       <c r="T29" t="n">
-        <v>137.6678563313394</v>
+        <v>220.5483964422405</v>
       </c>
       <c r="U29" t="n">
-        <v>168.4185574000762</v>
+        <v>251.2990975109773</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>286.8505605675679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>89.82795887741462</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24777,7 +24777,7 @@
         <v>109.2282977457949</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,22 +24807,22 @@
         <v>80.82578795719726</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8996718358445</v>
+        <v>83.01913172494338</v>
       </c>
       <c r="T30" t="n">
-        <v>198.9097025254507</v>
+        <v>116.0291624145495</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9208974318556</v>
+        <v>143.0403573209545</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>159.7994074197435</v>
       </c>
       <c r="W30" t="n">
-        <v>174.4895964660264</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>122.8924450925764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.95144007103617</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>94.72876027497369</v>
+        <v>84.84939989375422</v>
       </c>
       <c r="H31" t="n">
         <v>159.9062953436239</v>
@@ -24883,7 +24883,7 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R31" t="n">
-        <v>82.67557268525356</v>
+        <v>165.5561127961547</v>
       </c>
       <c r="S31" t="n">
         <v>219.4673940256893</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>203.6424582256899</v>
+        <v>213.5218186069093</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>142.829115278136</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>135.7041132411937</v>
       </c>
     </row>
     <row r="32">
@@ -24968,22 +24968,22 @@
         <v>195.7590557621249</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5483964422405</v>
+        <v>137.6678563313394</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2990975109773</v>
+        <v>168.4185574000761</v>
       </c>
       <c r="V32" t="n">
-        <v>254.7510787404532</v>
+        <v>244.8717183592338</v>
       </c>
       <c r="W32" t="n">
-        <v>266.3604286065119</v>
+        <v>276.2397889877313</v>
       </c>
       <c r="X32" t="n">
-        <v>286.8505605675679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>303.3573985451525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25044,22 +25044,22 @@
         <v>80.82578795719726</v>
       </c>
       <c r="S33" t="n">
-        <v>83.01913172494339</v>
+        <v>83.01913172494338</v>
       </c>
       <c r="T33" t="n">
         <v>198.9097025254507</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9208974318556</v>
+        <v>143.0403573209545</v>
       </c>
       <c r="V33" t="n">
-        <v>159.7994074197436</v>
+        <v>149.9200470385241</v>
       </c>
       <c r="W33" t="n">
-        <v>168.8144430500185</v>
+        <v>178.6938034312379</v>
       </c>
       <c r="X33" t="n">
-        <v>122.8924450925764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>84.3662809877267</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7299400046554</v>
+        <v>94.72876027497365</v>
       </c>
       <c r="H34" t="n">
-        <v>159.9062953436239</v>
+        <v>77.02575523272273</v>
       </c>
       <c r="I34" t="n">
         <v>147.6003096328796</v>
       </c>
       <c r="J34" t="n">
-        <v>66.20607507130183</v>
+        <v>74.90369780277223</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25117,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>64.30355699821131</v>
       </c>
       <c r="R34" t="n">
-        <v>82.67557268525356</v>
+        <v>165.5561127961547</v>
       </c>
       <c r="S34" t="n">
         <v>136.5868539147882</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7207950543947</v>
+        <v>331.8402549434936</v>
       </c>
       <c r="H35" t="n">
         <v>250.634443778809</v>
       </c>
       <c r="I35" t="n">
-        <v>105.1600127418128</v>
+        <v>188.040552852714</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,13 +25208,13 @@
         <v>220.5483964422405</v>
       </c>
       <c r="U35" t="n">
-        <v>178.2979177812956</v>
+        <v>251.2990975109773</v>
       </c>
       <c r="V35" t="n">
-        <v>244.8717183592338</v>
+        <v>254.7510787404532</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>266.3604286065118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25233,13 +25233,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>89.82795887741462</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>74.76454034449982</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,10 +25248,10 @@
         <v>137.0321504965985</v>
       </c>
       <c r="H36" t="n">
-        <v>32.02291105090166</v>
+        <v>109.2282977457949</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.67633314568958</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25287,19 +25287,19 @@
         <v>198.9097025254507</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9208974318556</v>
+        <v>152.9197177021739</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>168.8144430500185</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>122.8924450925763</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>122.8021556664032</v>
       </c>
     </row>
     <row r="37">
@@ -25321,19 +25321,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>72.41986829324956</v>
       </c>
       <c r="G37" t="n">
-        <v>84.84939989375424</v>
+        <v>84.84939989375422</v>
       </c>
       <c r="H37" t="n">
-        <v>77.02575523272274</v>
+        <v>77.02575523272273</v>
       </c>
       <c r="I37" t="n">
-        <v>64.71976952197848</v>
+        <v>64.71976952197846</v>
       </c>
       <c r="J37" t="n">
-        <v>1.902518073090562</v>
+        <v>74.90369780277223</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25391,7 +25391,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>282.3923516601064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,7 +25403,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7207950543947</v>
+        <v>331.8402549434936</v>
       </c>
       <c r="H38" t="n">
         <v>333.5149838897102</v>
@@ -25436,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.31249511198764</v>
+        <v>113.3136748416693</v>
       </c>
       <c r="S38" t="n">
-        <v>195.7590557621249</v>
+        <v>122.7578760324432</v>
       </c>
       <c r="T38" t="n">
         <v>137.6678563313394</v>
       </c>
       <c r="U38" t="n">
-        <v>168.4185574000762</v>
+        <v>168.4185574000761</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25473,22 +25473,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>64.56452545373763</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>70.01328050999832</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0321504965985</v>
+        <v>54.15161038569735</v>
       </c>
       <c r="H39" t="n">
-        <v>109.2282977457949</v>
+        <v>26.34775763489372</v>
       </c>
       <c r="I39" t="n">
-        <v>78.67633314568958</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>3.620401262304</v>
       </c>
       <c r="S39" t="n">
         <v>165.8996718358445</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>84.84939989375424</v>
+        <v>167.7299400046554</v>
       </c>
       <c r="H40" t="n">
-        <v>77.02575523272274</v>
+        <v>159.9062953436239</v>
       </c>
       <c r="I40" t="n">
         <v>147.6003096328796</v>
@@ -25594,25 +25594,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>82.67557268525356</v>
+        <v>82.67557268525354</v>
       </c>
       <c r="S40" t="n">
-        <v>210.7697712942189</v>
+        <v>219.4673940256893</v>
       </c>
       <c r="T40" t="n">
         <v>226.8302394620306</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3047908462834</v>
+        <v>203.4242507353823</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.2571032129269</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>217.0120326575667</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>299.8533015525794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,16 +25634,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>299.0498299613607</v>
+        <v>299.0498299613606</v>
       </c>
       <c r="F41" t="n">
-        <v>323.9955056308103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>331.8402549434936</v>
+        <v>341.719615324713</v>
       </c>
       <c r="H41" t="n">
-        <v>260.5138041600285</v>
+        <v>333.5149838897102</v>
       </c>
       <c r="I41" t="n">
         <v>188.040552852714</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>303.3573985451525</v>
       </c>
     </row>
     <row r="42">
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.82578795719726</v>
+        <v>7.824608227515583</v>
       </c>
       <c r="S42" t="n">
-        <v>92.89849210616283</v>
+        <v>165.8996718358445</v>
       </c>
       <c r="T42" t="n">
-        <v>116.0291624145496</v>
+        <v>198.9097025254507</v>
       </c>
       <c r="U42" t="n">
         <v>225.9208974318556</v>
@@ -25770,7 +25770,7 @@
         <v>168.8144430500185</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>122.8924450925763</v>
       </c>
       <c r="Y42" t="n">
         <v>122.8021556664032</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>96.95144007103616</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,10 +25795,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.54050791203012</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>84.84939989375424</v>
+        <v>167.7299400046554</v>
       </c>
       <c r="H43" t="n">
         <v>159.9062953436239</v>
@@ -25840,16 +25840,16 @@
         <v>226.8302394620306</v>
       </c>
       <c r="U43" t="n">
-        <v>203.4242507353823</v>
+        <v>213.3036111166018</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>169.2571032129269</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>203.6424582256899</v>
       </c>
       <c r="X43" t="n">
-        <v>152.7084756593555</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>398440.5166733515</v>
+        <v>398440.5166733514</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>398440.5166733515</v>
+        <v>398440.5166733513</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>398440.5166733516</v>
+        <v>398440.5166733514</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>398440.5166733513</v>
+        <v>398440.5166733514</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96756.66497830175</v>
+        <v>96756.66497830176</v>
       </c>
       <c r="C2" t="n">
-        <v>96756.66497830175</v>
+        <v>96756.66497830176</v>
       </c>
       <c r="D2" t="n">
-        <v>96756.66497830175</v>
+        <v>96756.66497830176</v>
       </c>
       <c r="E2" t="n">
         <v>102249.5577191123</v>
@@ -26329,10 +26329,10 @@
         <v>102249.5577191123</v>
       </c>
       <c r="H2" t="n">
-        <v>123381.4896832111</v>
+        <v>123381.489683211</v>
       </c>
       <c r="I2" t="n">
-        <v>123381.4896832111</v>
+        <v>123381.489683211</v>
       </c>
       <c r="J2" t="n">
         <v>123381.489683211</v>
@@ -26341,7 +26341,7 @@
         <v>123381.489683211</v>
       </c>
       <c r="L2" t="n">
-        <v>123381.489683211</v>
+        <v>123381.4896832111</v>
       </c>
       <c r="M2" t="n">
         <v>123381.489683211</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116299.16179806</v>
+        <v>116299.1617980601</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>22361.91564678215</v>
+        <v>22361.91564678213</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="D4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>31057.69372147138</v>
+        <v>31224.60414290214</v>
       </c>
       <c r="F4" t="n">
-        <v>31057.69372147138</v>
+        <v>31224.60414290214</v>
       </c>
       <c r="G4" t="n">
-        <v>31057.69372147138</v>
+        <v>31224.60414290214</v>
       </c>
       <c r="H4" t="n">
-        <v>41852.43468768017</v>
+        <v>42076.97201889745</v>
       </c>
       <c r="I4" t="n">
-        <v>41852.43468768017</v>
+        <v>42076.97201889745</v>
       </c>
       <c r="J4" t="n">
-        <v>41852.43468768016</v>
+        <v>42076.97201889745</v>
       </c>
       <c r="K4" t="n">
-        <v>41852.43468768016</v>
+        <v>42076.97201889745</v>
       </c>
       <c r="L4" t="n">
-        <v>41852.43468768016</v>
+        <v>42076.97201889745</v>
       </c>
       <c r="M4" t="n">
-        <v>41852.43468768016</v>
+        <v>42076.97201889745</v>
       </c>
       <c r="N4" t="n">
-        <v>41852.43468768016</v>
+        <v>42076.97201889745</v>
       </c>
       <c r="O4" t="n">
-        <v>41852.43468768016</v>
+        <v>42076.97201889745</v>
       </c>
       <c r="P4" t="n">
-        <v>31057.69372147138</v>
+        <v>31224.60414290214</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3155.728478979676</v>
+        <v>3155.728478979677</v>
       </c>
       <c r="F5" t="n">
-        <v>3155.728478979676</v>
+        <v>3155.728478979677</v>
       </c>
       <c r="G5" t="n">
-        <v>3155.728478979676</v>
+        <v>3155.728478979677</v>
       </c>
       <c r="H5" t="n">
-        <v>8194.865317722471</v>
+        <v>8194.865317722466</v>
       </c>
       <c r="I5" t="n">
-        <v>8194.865317722471</v>
+        <v>8194.865317722466</v>
       </c>
       <c r="J5" t="n">
-        <v>8194.865317722464</v>
+        <v>8194.865317722466</v>
       </c>
       <c r="K5" t="n">
-        <v>8194.865317722464</v>
+        <v>8194.865317722466</v>
       </c>
       <c r="L5" t="n">
-        <v>8194.865317722464</v>
+        <v>8194.865317722466</v>
       </c>
       <c r="M5" t="n">
-        <v>8194.865317722464</v>
+        <v>8194.865317722466</v>
       </c>
       <c r="N5" t="n">
-        <v>8194.865317722464</v>
+        <v>8194.865317722466</v>
       </c>
       <c r="O5" t="n">
-        <v>8194.865317722464</v>
+        <v>8194.865317722466</v>
       </c>
       <c r="P5" t="n">
-        <v>3155.728478979676</v>
+        <v>3155.728478979677</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15009.33778089216</v>
+        <v>14750.7324891509</v>
       </c>
       <c r="C6" t="n">
-        <v>15009.33778089216</v>
+        <v>14750.7324891509</v>
       </c>
       <c r="D6" t="n">
-        <v>15009.33778089216</v>
+        <v>14750.7324891509</v>
       </c>
       <c r="E6" t="n">
-        <v>-48263.02627939879</v>
+        <v>-48429.93670082955</v>
       </c>
       <c r="F6" t="n">
-        <v>68036.13551866123</v>
+        <v>67869.22509723049</v>
       </c>
       <c r="G6" t="n">
-        <v>68036.13551866123</v>
+        <v>67869.22509723049</v>
       </c>
       <c r="H6" t="n">
-        <v>50972.27403102627</v>
+        <v>50747.73669980897</v>
       </c>
       <c r="I6" t="n">
-        <v>73334.18967780843</v>
+        <v>73109.65234659112</v>
       </c>
       <c r="J6" t="n">
-        <v>73334.1896778084</v>
+        <v>73109.65234659112</v>
       </c>
       <c r="K6" t="n">
-        <v>73334.18967780839</v>
+        <v>73109.65234659112</v>
       </c>
       <c r="L6" t="n">
-        <v>73334.18967780838</v>
+        <v>73109.65234659115</v>
       </c>
       <c r="M6" t="n">
-        <v>73334.18967780836</v>
+        <v>73109.65234659112</v>
       </c>
       <c r="N6" t="n">
-        <v>73334.18967780838</v>
+        <v>73109.65234659109</v>
       </c>
       <c r="O6" t="n">
-        <v>73334.18967780843</v>
+        <v>73109.65234659115</v>
       </c>
       <c r="P6" t="n">
-        <v>68036.13551866123</v>
+        <v>67869.22509723049</v>
       </c>
     </row>
   </sheetData>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88054011090124</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="I4" t="n">
-        <v>82.88054011090124</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="J4" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="K4" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L4" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M4" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N4" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O4" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88054011090124</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>82.88054011090124</v>
+        <v>82.88054011090114</v>
       </c>
     </row>
   </sheetData>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.5819424607403392</v>
       </c>
       <c r="H11" t="n">
-        <v>5.959818226056999</v>
+        <v>5.959818226057</v>
       </c>
       <c r="I11" t="n">
-        <v>22.43533671769194</v>
+        <v>22.43533671769195</v>
       </c>
       <c r="J11" t="n">
-        <v>49.3916389272604</v>
+        <v>49.39163892726041</v>
       </c>
       <c r="K11" t="n">
-        <v>74.02526329039897</v>
+        <v>74.02526329039898</v>
       </c>
       <c r="L11" t="n">
-        <v>91.83488487328114</v>
+        <v>91.83488487328115</v>
       </c>
       <c r="M11" t="n">
-        <v>102.1840041094721</v>
+        <v>102.1840041094722</v>
       </c>
       <c r="N11" t="n">
-        <v>103.8374481260506</v>
+        <v>103.8374481260507</v>
       </c>
       <c r="O11" t="n">
-        <v>98.05075778206388</v>
+        <v>98.0507577820639</v>
       </c>
       <c r="P11" t="n">
-        <v>83.68405328253675</v>
+        <v>83.68405328253677</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.84323890727333</v>
+        <v>62.84323890727335</v>
       </c>
       <c r="R11" t="n">
         <v>36.55544309948036</v>
@@ -31792,7 +31792,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.04655539685922713</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J12" t="n">
-        <v>29.41732177847551</v>
+        <v>29.41732177847552</v>
       </c>
       <c r="K12" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L12" t="n">
-        <v>67.60617030980131</v>
+        <v>67.60617030980133</v>
       </c>
       <c r="M12" t="n">
-        <v>78.89321197449189</v>
+        <v>78.8932119744919</v>
       </c>
       <c r="N12" t="n">
-        <v>80.9812805413778</v>
+        <v>80.98128054137781</v>
       </c>
       <c r="O12" t="n">
-        <v>74.08205071802428</v>
+        <v>74.08205071802429</v>
       </c>
       <c r="P12" t="n">
-        <v>59.45737689017533</v>
+        <v>59.45737689017534</v>
       </c>
       <c r="Q12" t="n">
         <v>39.74568186438658</v>
@@ -31865,7 +31865,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S12" t="n">
-        <v>5.7834992679933</v>
+        <v>5.783499267993302</v>
       </c>
       <c r="T12" t="n">
         <v>1.25502616937092</v>
@@ -31911,43 +31911,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H13" t="n">
-        <v>2.320877163815705</v>
+        <v>2.320877163815706</v>
       </c>
       <c r="I13" t="n">
-        <v>7.850165294378681</v>
+        <v>7.850165294378683</v>
       </c>
       <c r="J13" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K13" t="n">
-        <v>30.32802674188618</v>
+        <v>30.32802674188619</v>
       </c>
       <c r="L13" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M13" t="n">
-        <v>40.91910525120058</v>
+        <v>40.9191052512006</v>
       </c>
       <c r="N13" t="n">
-        <v>39.9461403870243</v>
+        <v>39.94614038702431</v>
       </c>
       <c r="O13" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P13" t="n">
-        <v>31.5715233000042</v>
+        <v>31.57152330000421</v>
       </c>
       <c r="Q13" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R13" t="n">
-        <v>11.73727858101479</v>
+        <v>11.7372785810148</v>
       </c>
       <c r="S13" t="n">
-        <v>4.549204011282927</v>
+        <v>4.549204011282928</v>
       </c>
       <c r="T13" t="n">
-        <v>1.1153499662509</v>
+        <v>1.115349966250901</v>
       </c>
       <c r="U13" t="n">
         <v>0.01423851020745832</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.5819424607403392</v>
       </c>
       <c r="H14" t="n">
-        <v>5.959818226056999</v>
+        <v>5.959818226057</v>
       </c>
       <c r="I14" t="n">
-        <v>22.43533671769194</v>
+        <v>22.43533671769195</v>
       </c>
       <c r="J14" t="n">
-        <v>49.3916389272604</v>
+        <v>49.39163892726041</v>
       </c>
       <c r="K14" t="n">
-        <v>74.02526329039897</v>
+        <v>74.02526329039898</v>
       </c>
       <c r="L14" t="n">
-        <v>91.83488487328114</v>
+        <v>91.83488487328115</v>
       </c>
       <c r="M14" t="n">
-        <v>102.1840041094721</v>
+        <v>102.1840041094722</v>
       </c>
       <c r="N14" t="n">
-        <v>103.8374481260506</v>
+        <v>103.8374481260507</v>
       </c>
       <c r="O14" t="n">
-        <v>98.05075778206388</v>
+        <v>98.0507577820639</v>
       </c>
       <c r="P14" t="n">
-        <v>83.68405328253675</v>
+        <v>83.68405328253677</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.84323890727333</v>
+        <v>62.84323890727335</v>
       </c>
       <c r="R14" t="n">
         <v>36.55544309948036</v>
@@ -32029,7 +32029,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.04655539685922713</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J15" t="n">
-        <v>29.41732177847551</v>
+        <v>29.41732177847552</v>
       </c>
       <c r="K15" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L15" t="n">
-        <v>67.60617030980131</v>
+        <v>67.60617030980133</v>
       </c>
       <c r="M15" t="n">
-        <v>78.89321197449189</v>
+        <v>78.8932119744919</v>
       </c>
       <c r="N15" t="n">
-        <v>80.9812805413778</v>
+        <v>80.98128054137781</v>
       </c>
       <c r="O15" t="n">
-        <v>74.08205071802428</v>
+        <v>74.08205071802429</v>
       </c>
       <c r="P15" t="n">
-        <v>59.45737689017533</v>
+        <v>59.45737689017534</v>
       </c>
       <c r="Q15" t="n">
         <v>39.74568186438658</v>
@@ -32102,7 +32102,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S15" t="n">
-        <v>5.7834992679933</v>
+        <v>5.783499267993302</v>
       </c>
       <c r="T15" t="n">
         <v>1.25502616937092</v>
@@ -32148,43 +32148,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H16" t="n">
-        <v>2.320877163815705</v>
+        <v>2.320877163815706</v>
       </c>
       <c r="I16" t="n">
-        <v>7.850165294378681</v>
+        <v>7.850165294378683</v>
       </c>
       <c r="J16" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K16" t="n">
-        <v>30.32802674188618</v>
+        <v>30.32802674188619</v>
       </c>
       <c r="L16" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M16" t="n">
-        <v>40.91910525120058</v>
+        <v>40.9191052512006</v>
       </c>
       <c r="N16" t="n">
-        <v>39.9461403870243</v>
+        <v>39.94614038702431</v>
       </c>
       <c r="O16" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P16" t="n">
-        <v>31.5715233000042</v>
+        <v>31.57152330000421</v>
       </c>
       <c r="Q16" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R16" t="n">
-        <v>11.73727858101479</v>
+        <v>11.7372785810148</v>
       </c>
       <c r="S16" t="n">
-        <v>4.549204011282927</v>
+        <v>4.549204011282928</v>
       </c>
       <c r="T16" t="n">
-        <v>1.1153499662509</v>
+        <v>1.115349966250901</v>
       </c>
       <c r="U16" t="n">
         <v>0.01423851020745832</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.5819424607403392</v>
       </c>
       <c r="H17" t="n">
-        <v>5.959818226056999</v>
+        <v>5.959818226057</v>
       </c>
       <c r="I17" t="n">
-        <v>22.43533671769194</v>
+        <v>22.43533671769195</v>
       </c>
       <c r="J17" t="n">
-        <v>49.3916389272604</v>
+        <v>49.39163892726041</v>
       </c>
       <c r="K17" t="n">
-        <v>74.02526329039897</v>
+        <v>74.02526329039898</v>
       </c>
       <c r="L17" t="n">
-        <v>91.83488487328114</v>
+        <v>91.83488487328115</v>
       </c>
       <c r="M17" t="n">
-        <v>102.1840041094721</v>
+        <v>102.1840041094722</v>
       </c>
       <c r="N17" t="n">
-        <v>103.8374481260506</v>
+        <v>103.8374481260507</v>
       </c>
       <c r="O17" t="n">
-        <v>98.05075778206388</v>
+        <v>98.0507577820639</v>
       </c>
       <c r="P17" t="n">
-        <v>83.68405328253675</v>
+        <v>83.68405328253677</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.84323890727333</v>
+        <v>62.84323890727335</v>
       </c>
       <c r="R17" t="n">
         <v>36.55544309948036</v>
@@ -32266,7 +32266,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.04655539685922713</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J18" t="n">
-        <v>29.41732177847551</v>
+        <v>29.41732177847552</v>
       </c>
       <c r="K18" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L18" t="n">
-        <v>67.60617030980131</v>
+        <v>67.60617030980133</v>
       </c>
       <c r="M18" t="n">
-        <v>78.89321197449189</v>
+        <v>78.8932119744919</v>
       </c>
       <c r="N18" t="n">
-        <v>80.9812805413778</v>
+        <v>80.98128054137781</v>
       </c>
       <c r="O18" t="n">
-        <v>74.08205071802428</v>
+        <v>74.08205071802429</v>
       </c>
       <c r="P18" t="n">
-        <v>59.45737689017533</v>
+        <v>59.45737689017534</v>
       </c>
       <c r="Q18" t="n">
         <v>39.74568186438658</v>
@@ -32339,7 +32339,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S18" t="n">
-        <v>5.7834992679933</v>
+        <v>5.783499267993302</v>
       </c>
       <c r="T18" t="n">
         <v>1.25502616937092</v>
@@ -32385,43 +32385,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H19" t="n">
-        <v>2.320877163815705</v>
+        <v>2.320877163815706</v>
       </c>
       <c r="I19" t="n">
-        <v>7.850165294378681</v>
+        <v>7.850165294378683</v>
       </c>
       <c r="J19" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K19" t="n">
-        <v>30.32802674188618</v>
+        <v>30.32802674188619</v>
       </c>
       <c r="L19" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M19" t="n">
-        <v>40.91910525120058</v>
+        <v>40.9191052512006</v>
       </c>
       <c r="N19" t="n">
-        <v>39.9461403870243</v>
+        <v>39.94614038702431</v>
       </c>
       <c r="O19" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P19" t="n">
-        <v>31.5715233000042</v>
+        <v>31.57152330000421</v>
       </c>
       <c r="Q19" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R19" t="n">
-        <v>11.73727858101479</v>
+        <v>11.7372785810148</v>
       </c>
       <c r="S19" t="n">
-        <v>4.549204011282927</v>
+        <v>4.549204011282928</v>
       </c>
       <c r="T19" t="n">
-        <v>1.1153499662509</v>
+        <v>1.115349966250901</v>
       </c>
       <c r="U19" t="n">
         <v>0.01423851020745832</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.5819424607403392</v>
       </c>
       <c r="H20" t="n">
-        <v>5.959818226056999</v>
+        <v>5.959818226057</v>
       </c>
       <c r="I20" t="n">
-        <v>22.43533671769194</v>
+        <v>22.43533671769195</v>
       </c>
       <c r="J20" t="n">
-        <v>49.3916389272604</v>
+        <v>49.39163892726041</v>
       </c>
       <c r="K20" t="n">
-        <v>74.02526329039897</v>
+        <v>74.02526329039898</v>
       </c>
       <c r="L20" t="n">
-        <v>91.83488487328114</v>
+        <v>91.83488487328115</v>
       </c>
       <c r="M20" t="n">
-        <v>102.1840041094721</v>
+        <v>102.1840041094722</v>
       </c>
       <c r="N20" t="n">
-        <v>103.8374481260506</v>
+        <v>103.8374481260507</v>
       </c>
       <c r="O20" t="n">
-        <v>98.05075778206388</v>
+        <v>98.0507577820639</v>
       </c>
       <c r="P20" t="n">
-        <v>83.68405328253675</v>
+        <v>83.68405328253677</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.84323890727333</v>
+        <v>62.84323890727335</v>
       </c>
       <c r="R20" t="n">
         <v>36.55544309948036</v>
@@ -32503,7 +32503,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.04655539685922713</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,25 +32549,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J21" t="n">
-        <v>29.41732177847551</v>
+        <v>29.41732177847552</v>
       </c>
       <c r="K21" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L21" t="n">
-        <v>67.60617030980131</v>
+        <v>67.60617030980133</v>
       </c>
       <c r="M21" t="n">
-        <v>78.89321197449189</v>
+        <v>78.8932119744919</v>
       </c>
       <c r="N21" t="n">
-        <v>80.9812805413778</v>
+        <v>80.98128054137781</v>
       </c>
       <c r="O21" t="n">
-        <v>74.08205071802428</v>
+        <v>74.08205071802429</v>
       </c>
       <c r="P21" t="n">
-        <v>59.45737689017533</v>
+        <v>59.45737689017534</v>
       </c>
       <c r="Q21" t="n">
         <v>39.74568186438658</v>
@@ -32576,7 +32576,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S21" t="n">
-        <v>5.7834992679933</v>
+        <v>5.783499267993302</v>
       </c>
       <c r="T21" t="n">
         <v>1.25502616937092</v>
@@ -32622,43 +32622,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H22" t="n">
-        <v>2.320877163815705</v>
+        <v>2.320877163815706</v>
       </c>
       <c r="I22" t="n">
-        <v>7.850165294378681</v>
+        <v>7.850165294378683</v>
       </c>
       <c r="J22" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K22" t="n">
-        <v>30.32802674188618</v>
+        <v>30.32802674188619</v>
       </c>
       <c r="L22" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M22" t="n">
-        <v>40.91910525120058</v>
+        <v>40.9191052512006</v>
       </c>
       <c r="N22" t="n">
-        <v>39.9461403870243</v>
+        <v>39.94614038702431</v>
       </c>
       <c r="O22" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P22" t="n">
-        <v>31.5715233000042</v>
+        <v>31.57152330000421</v>
       </c>
       <c r="Q22" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R22" t="n">
-        <v>11.73727858101479</v>
+        <v>11.7372785810148</v>
       </c>
       <c r="S22" t="n">
-        <v>4.549204011282927</v>
+        <v>4.549204011282928</v>
       </c>
       <c r="T22" t="n">
-        <v>1.1153499662509</v>
+        <v>1.115349966250901</v>
       </c>
       <c r="U22" t="n">
         <v>0.01423851020745832</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.5819424607403392</v>
       </c>
       <c r="H23" t="n">
-        <v>5.959818226056999</v>
+        <v>5.959818226057</v>
       </c>
       <c r="I23" t="n">
-        <v>22.43533671769194</v>
+        <v>22.43533671769195</v>
       </c>
       <c r="J23" t="n">
-        <v>49.3916389272604</v>
+        <v>49.39163892726041</v>
       </c>
       <c r="K23" t="n">
-        <v>74.02526329039897</v>
+        <v>74.02526329039898</v>
       </c>
       <c r="L23" t="n">
-        <v>91.83488487328114</v>
+        <v>91.83488487328115</v>
       </c>
       <c r="M23" t="n">
-        <v>102.1840041094721</v>
+        <v>102.1840041094722</v>
       </c>
       <c r="N23" t="n">
-        <v>103.8374481260506</v>
+        <v>103.8374481260507</v>
       </c>
       <c r="O23" t="n">
-        <v>98.05075778206388</v>
+        <v>98.0507577820639</v>
       </c>
       <c r="P23" t="n">
-        <v>83.68405328253675</v>
+        <v>83.68405328253677</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.84323890727333</v>
+        <v>62.84323890727335</v>
       </c>
       <c r="R23" t="n">
         <v>36.55544309948036</v>
@@ -32740,7 +32740,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.04655539685922713</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,25 +32786,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J24" t="n">
-        <v>29.41732177847551</v>
+        <v>29.41732177847552</v>
       </c>
       <c r="K24" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L24" t="n">
-        <v>67.60617030980131</v>
+        <v>67.60617030980133</v>
       </c>
       <c r="M24" t="n">
-        <v>78.89321197449189</v>
+        <v>78.8932119744919</v>
       </c>
       <c r="N24" t="n">
-        <v>80.9812805413778</v>
+        <v>80.98128054137781</v>
       </c>
       <c r="O24" t="n">
-        <v>74.08205071802428</v>
+        <v>74.08205071802429</v>
       </c>
       <c r="P24" t="n">
-        <v>59.45737689017533</v>
+        <v>59.45737689017534</v>
       </c>
       <c r="Q24" t="n">
         <v>39.74568186438658</v>
@@ -32813,7 +32813,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S24" t="n">
-        <v>5.7834992679933</v>
+        <v>5.783499267993302</v>
       </c>
       <c r="T24" t="n">
         <v>1.25502616937092</v>
@@ -32859,43 +32859,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H25" t="n">
-        <v>2.320877163815705</v>
+        <v>2.320877163815706</v>
       </c>
       <c r="I25" t="n">
-        <v>7.850165294378681</v>
+        <v>7.850165294378683</v>
       </c>
       <c r="J25" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K25" t="n">
-        <v>30.32802674188618</v>
+        <v>30.32802674188619</v>
       </c>
       <c r="L25" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M25" t="n">
-        <v>40.91910525120058</v>
+        <v>40.9191052512006</v>
       </c>
       <c r="N25" t="n">
-        <v>39.9461403870243</v>
+        <v>39.94614038702431</v>
       </c>
       <c r="O25" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P25" t="n">
-        <v>31.5715233000042</v>
+        <v>31.57152330000421</v>
       </c>
       <c r="Q25" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R25" t="n">
-        <v>11.73727858101479</v>
+        <v>11.7372785810148</v>
       </c>
       <c r="S25" t="n">
-        <v>4.549204011282927</v>
+        <v>4.549204011282928</v>
       </c>
       <c r="T25" t="n">
-        <v>1.1153499662509</v>
+        <v>1.115349966250901</v>
       </c>
       <c r="U25" t="n">
         <v>0.01423851020745832</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.5819424607403392</v>
       </c>
       <c r="H26" t="n">
-        <v>5.959818226056999</v>
+        <v>5.959818226057</v>
       </c>
       <c r="I26" t="n">
-        <v>22.43533671769194</v>
+        <v>22.43533671769195</v>
       </c>
       <c r="J26" t="n">
-        <v>49.3916389272604</v>
+        <v>49.39163892726041</v>
       </c>
       <c r="K26" t="n">
-        <v>74.02526329039897</v>
+        <v>74.02526329039898</v>
       </c>
       <c r="L26" t="n">
-        <v>91.83488487328114</v>
+        <v>91.83488487328115</v>
       </c>
       <c r="M26" t="n">
-        <v>102.1840041094721</v>
+        <v>102.1840041094722</v>
       </c>
       <c r="N26" t="n">
-        <v>103.8374481260506</v>
+        <v>103.8374481260507</v>
       </c>
       <c r="O26" t="n">
-        <v>98.05075778206388</v>
+        <v>98.0507577820639</v>
       </c>
       <c r="P26" t="n">
-        <v>83.68405328253675</v>
+        <v>83.68405328253677</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.84323890727333</v>
+        <v>62.84323890727335</v>
       </c>
       <c r="R26" t="n">
         <v>36.55544309948036</v>
@@ -32977,7 +32977,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.04655539685922713</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,25 +33023,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J27" t="n">
-        <v>29.41732177847551</v>
+        <v>29.41732177847552</v>
       </c>
       <c r="K27" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L27" t="n">
-        <v>67.60617030980131</v>
+        <v>67.60617030980133</v>
       </c>
       <c r="M27" t="n">
-        <v>78.89321197449189</v>
+        <v>78.8932119744919</v>
       </c>
       <c r="N27" t="n">
-        <v>80.9812805413778</v>
+        <v>80.98128054137781</v>
       </c>
       <c r="O27" t="n">
-        <v>74.08205071802428</v>
+        <v>74.08205071802429</v>
       </c>
       <c r="P27" t="n">
-        <v>59.45737689017533</v>
+        <v>59.45737689017534</v>
       </c>
       <c r="Q27" t="n">
         <v>39.74568186438658</v>
@@ -33050,7 +33050,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S27" t="n">
-        <v>5.7834992679933</v>
+        <v>5.783499267993302</v>
       </c>
       <c r="T27" t="n">
         <v>1.25502616937092</v>
@@ -33096,43 +33096,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H28" t="n">
-        <v>2.320877163815705</v>
+        <v>2.320877163815706</v>
       </c>
       <c r="I28" t="n">
-        <v>7.850165294378681</v>
+        <v>7.850165294378683</v>
       </c>
       <c r="J28" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K28" t="n">
-        <v>30.32802674188618</v>
+        <v>30.32802674188619</v>
       </c>
       <c r="L28" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M28" t="n">
-        <v>40.91910525120058</v>
+        <v>40.9191052512006</v>
       </c>
       <c r="N28" t="n">
-        <v>39.9461403870243</v>
+        <v>39.94614038702431</v>
       </c>
       <c r="O28" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P28" t="n">
-        <v>31.5715233000042</v>
+        <v>31.57152330000421</v>
       </c>
       <c r="Q28" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R28" t="n">
-        <v>11.73727858101479</v>
+        <v>11.7372785810148</v>
       </c>
       <c r="S28" t="n">
-        <v>4.549204011282927</v>
+        <v>4.549204011282928</v>
       </c>
       <c r="T28" t="n">
-        <v>1.1153499662509</v>
+        <v>1.115349966250901</v>
       </c>
       <c r="U28" t="n">
         <v>0.01423851020745832</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.5819424607403392</v>
       </c>
       <c r="H29" t="n">
-        <v>5.959818226056999</v>
+        <v>5.959818226057</v>
       </c>
       <c r="I29" t="n">
-        <v>22.43533671769194</v>
+        <v>22.43533671769195</v>
       </c>
       <c r="J29" t="n">
-        <v>49.3916389272604</v>
+        <v>49.39163892726041</v>
       </c>
       <c r="K29" t="n">
-        <v>74.02526329039897</v>
+        <v>74.02526329039898</v>
       </c>
       <c r="L29" t="n">
-        <v>91.83488487328114</v>
+        <v>91.83488487328115</v>
       </c>
       <c r="M29" t="n">
-        <v>102.1840041094721</v>
+        <v>102.1840041094722</v>
       </c>
       <c r="N29" t="n">
-        <v>103.8374481260506</v>
+        <v>103.8374481260507</v>
       </c>
       <c r="O29" t="n">
-        <v>98.05075778206388</v>
+        <v>98.0507577820639</v>
       </c>
       <c r="P29" t="n">
-        <v>83.68405328253675</v>
+        <v>83.68405328253677</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.84323890727333</v>
+        <v>62.84323890727335</v>
       </c>
       <c r="R29" t="n">
         <v>36.55544309948036</v>
@@ -33214,7 +33214,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.04655539685922713</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,25 +33260,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J30" t="n">
-        <v>29.41732177847551</v>
+        <v>29.41732177847552</v>
       </c>
       <c r="K30" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L30" t="n">
-        <v>67.60617030980131</v>
+        <v>67.60617030980133</v>
       </c>
       <c r="M30" t="n">
-        <v>78.89321197449189</v>
+        <v>78.8932119744919</v>
       </c>
       <c r="N30" t="n">
-        <v>80.9812805413778</v>
+        <v>80.98128054137781</v>
       </c>
       <c r="O30" t="n">
-        <v>74.08205071802428</v>
+        <v>74.08205071802429</v>
       </c>
       <c r="P30" t="n">
-        <v>59.45737689017533</v>
+        <v>59.45737689017534</v>
       </c>
       <c r="Q30" t="n">
         <v>39.74568186438658</v>
@@ -33287,7 +33287,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S30" t="n">
-        <v>5.7834992679933</v>
+        <v>5.783499267993302</v>
       </c>
       <c r="T30" t="n">
         <v>1.25502616937092</v>
@@ -33333,43 +33333,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H31" t="n">
-        <v>2.320877163815705</v>
+        <v>2.320877163815706</v>
       </c>
       <c r="I31" t="n">
-        <v>7.850165294378681</v>
+        <v>7.850165294378683</v>
       </c>
       <c r="J31" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K31" t="n">
-        <v>30.32802674188618</v>
+        <v>30.32802674188619</v>
       </c>
       <c r="L31" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M31" t="n">
-        <v>40.91910525120058</v>
+        <v>40.9191052512006</v>
       </c>
       <c r="N31" t="n">
-        <v>39.9461403870243</v>
+        <v>39.94614038702431</v>
       </c>
       <c r="O31" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P31" t="n">
-        <v>31.5715233000042</v>
+        <v>31.57152330000421</v>
       </c>
       <c r="Q31" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R31" t="n">
-        <v>11.73727858101479</v>
+        <v>11.7372785810148</v>
       </c>
       <c r="S31" t="n">
-        <v>4.549204011282927</v>
+        <v>4.549204011282928</v>
       </c>
       <c r="T31" t="n">
-        <v>1.1153499662509</v>
+        <v>1.115349966250901</v>
       </c>
       <c r="U31" t="n">
         <v>0.01423851020745832</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.5819424607403392</v>
       </c>
       <c r="H32" t="n">
-        <v>5.959818226056999</v>
+        <v>5.959818226057</v>
       </c>
       <c r="I32" t="n">
-        <v>22.43533671769194</v>
+        <v>22.43533671769195</v>
       </c>
       <c r="J32" t="n">
-        <v>49.3916389272604</v>
+        <v>49.39163892726041</v>
       </c>
       <c r="K32" t="n">
-        <v>74.02526329039897</v>
+        <v>74.02526329039898</v>
       </c>
       <c r="L32" t="n">
-        <v>91.83488487328114</v>
+        <v>91.83488487328115</v>
       </c>
       <c r="M32" t="n">
-        <v>102.1840041094721</v>
+        <v>102.1840041094722</v>
       </c>
       <c r="N32" t="n">
-        <v>103.8374481260506</v>
+        <v>103.8374481260507</v>
       </c>
       <c r="O32" t="n">
-        <v>98.05075778206388</v>
+        <v>98.0507577820639</v>
       </c>
       <c r="P32" t="n">
-        <v>83.68405328253675</v>
+        <v>83.68405328253677</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.84323890727333</v>
+        <v>62.84323890727335</v>
       </c>
       <c r="R32" t="n">
         <v>36.55544309948036</v>
@@ -33451,7 +33451,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.04655539685922713</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,25 +33497,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J33" t="n">
-        <v>29.41732177847551</v>
+        <v>29.41732177847552</v>
       </c>
       <c r="K33" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L33" t="n">
-        <v>67.60617030980131</v>
+        <v>67.60617030980133</v>
       </c>
       <c r="M33" t="n">
-        <v>78.89321197449189</v>
+        <v>78.8932119744919</v>
       </c>
       <c r="N33" t="n">
-        <v>80.9812805413778</v>
+        <v>80.98128054137781</v>
       </c>
       <c r="O33" t="n">
-        <v>74.08205071802428</v>
+        <v>74.08205071802429</v>
       </c>
       <c r="P33" t="n">
-        <v>59.45737689017533</v>
+        <v>59.45737689017534</v>
       </c>
       <c r="Q33" t="n">
         <v>39.74568186438658</v>
@@ -33524,7 +33524,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S33" t="n">
-        <v>5.7834992679933</v>
+        <v>5.783499267993302</v>
       </c>
       <c r="T33" t="n">
         <v>1.25502616937092</v>
@@ -33570,43 +33570,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H34" t="n">
-        <v>2.320877163815705</v>
+        <v>2.320877163815706</v>
       </c>
       <c r="I34" t="n">
-        <v>7.850165294378681</v>
+        <v>7.850165294378683</v>
       </c>
       <c r="J34" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K34" t="n">
-        <v>30.32802674188618</v>
+        <v>30.32802674188619</v>
       </c>
       <c r="L34" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M34" t="n">
-        <v>40.91910525120058</v>
+        <v>40.9191052512006</v>
       </c>
       <c r="N34" t="n">
-        <v>39.9461403870243</v>
+        <v>39.94614038702431</v>
       </c>
       <c r="O34" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P34" t="n">
-        <v>31.5715233000042</v>
+        <v>31.57152330000421</v>
       </c>
       <c r="Q34" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R34" t="n">
-        <v>11.73727858101479</v>
+        <v>11.7372785810148</v>
       </c>
       <c r="S34" t="n">
-        <v>4.549204011282927</v>
+        <v>4.549204011282928</v>
       </c>
       <c r="T34" t="n">
-        <v>1.1153499662509</v>
+        <v>1.115349966250901</v>
       </c>
       <c r="U34" t="n">
         <v>0.01423851020745832</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.5819424607403392</v>
       </c>
       <c r="H35" t="n">
-        <v>5.959818226056999</v>
+        <v>5.959818226057</v>
       </c>
       <c r="I35" t="n">
-        <v>22.43533671769194</v>
+        <v>22.43533671769195</v>
       </c>
       <c r="J35" t="n">
-        <v>49.3916389272604</v>
+        <v>49.39163892726041</v>
       </c>
       <c r="K35" t="n">
-        <v>74.02526329039897</v>
+        <v>74.02526329039898</v>
       </c>
       <c r="L35" t="n">
-        <v>91.83488487328114</v>
+        <v>91.83488487328115</v>
       </c>
       <c r="M35" t="n">
-        <v>102.1840041094721</v>
+        <v>102.1840041094722</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8374481260506</v>
+        <v>103.8374481260507</v>
       </c>
       <c r="O35" t="n">
-        <v>98.05075778206388</v>
+        <v>98.0507577820639</v>
       </c>
       <c r="P35" t="n">
-        <v>83.68405328253675</v>
+        <v>83.68405328253677</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.84323890727333</v>
+        <v>62.84323890727335</v>
       </c>
       <c r="R35" t="n">
         <v>36.55544309948036</v>
@@ -33688,7 +33688,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.04655539685922713</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,25 +33734,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J36" t="n">
-        <v>29.41732177847551</v>
+        <v>29.41732177847552</v>
       </c>
       <c r="K36" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L36" t="n">
-        <v>67.60617030980131</v>
+        <v>67.60617030980133</v>
       </c>
       <c r="M36" t="n">
-        <v>78.89321197449189</v>
+        <v>78.8932119744919</v>
       </c>
       <c r="N36" t="n">
-        <v>80.9812805413778</v>
+        <v>80.98128054137781</v>
       </c>
       <c r="O36" t="n">
-        <v>74.08205071802428</v>
+        <v>74.08205071802429</v>
       </c>
       <c r="P36" t="n">
-        <v>59.45737689017533</v>
+        <v>59.45737689017534</v>
       </c>
       <c r="Q36" t="n">
         <v>39.74568186438658</v>
@@ -33761,7 +33761,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S36" t="n">
-        <v>5.7834992679933</v>
+        <v>5.783499267993302</v>
       </c>
       <c r="T36" t="n">
         <v>1.25502616937092</v>
@@ -33807,43 +33807,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H37" t="n">
-        <v>2.320877163815705</v>
+        <v>2.320877163815706</v>
       </c>
       <c r="I37" t="n">
-        <v>7.850165294378681</v>
+        <v>7.850165294378683</v>
       </c>
       <c r="J37" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K37" t="n">
-        <v>30.32802674188618</v>
+        <v>30.32802674188619</v>
       </c>
       <c r="L37" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M37" t="n">
-        <v>40.91910525120058</v>
+        <v>40.9191052512006</v>
       </c>
       <c r="N37" t="n">
-        <v>39.9461403870243</v>
+        <v>39.94614038702431</v>
       </c>
       <c r="O37" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P37" t="n">
-        <v>31.5715233000042</v>
+        <v>31.57152330000421</v>
       </c>
       <c r="Q37" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R37" t="n">
-        <v>11.73727858101479</v>
+        <v>11.7372785810148</v>
       </c>
       <c r="S37" t="n">
-        <v>4.549204011282927</v>
+        <v>4.549204011282928</v>
       </c>
       <c r="T37" t="n">
-        <v>1.1153499662509</v>
+        <v>1.115349966250901</v>
       </c>
       <c r="U37" t="n">
         <v>0.01423851020745832</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.5819424607403392</v>
       </c>
       <c r="H38" t="n">
-        <v>5.959818226056999</v>
+        <v>5.959818226057</v>
       </c>
       <c r="I38" t="n">
-        <v>22.43533671769194</v>
+        <v>22.43533671769195</v>
       </c>
       <c r="J38" t="n">
-        <v>49.3916389272604</v>
+        <v>49.39163892726041</v>
       </c>
       <c r="K38" t="n">
-        <v>74.02526329039897</v>
+        <v>74.02526329039898</v>
       </c>
       <c r="L38" t="n">
-        <v>91.83488487328114</v>
+        <v>91.83488487328115</v>
       </c>
       <c r="M38" t="n">
-        <v>102.1840041094721</v>
+        <v>102.1840041094722</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8374481260506</v>
+        <v>103.8374481260507</v>
       </c>
       <c r="O38" t="n">
-        <v>98.05075778206388</v>
+        <v>98.0507577820639</v>
       </c>
       <c r="P38" t="n">
-        <v>83.68405328253675</v>
+        <v>83.68405328253677</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.84323890727333</v>
+        <v>62.84323890727335</v>
       </c>
       <c r="R38" t="n">
         <v>36.55544309948036</v>
@@ -33925,7 +33925,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.04655539685922713</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,25 +33971,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J39" t="n">
-        <v>29.41732177847551</v>
+        <v>29.41732177847552</v>
       </c>
       <c r="K39" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L39" t="n">
-        <v>67.60617030980131</v>
+        <v>67.60617030980133</v>
       </c>
       <c r="M39" t="n">
-        <v>78.89321197449189</v>
+        <v>78.8932119744919</v>
       </c>
       <c r="N39" t="n">
-        <v>80.9812805413778</v>
+        <v>80.98128054137781</v>
       </c>
       <c r="O39" t="n">
-        <v>74.08205071802428</v>
+        <v>74.08205071802429</v>
       </c>
       <c r="P39" t="n">
-        <v>59.45737689017533</v>
+        <v>59.45737689017534</v>
       </c>
       <c r="Q39" t="n">
         <v>39.74568186438658</v>
@@ -33998,7 +33998,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S39" t="n">
-        <v>5.7834992679933</v>
+        <v>5.783499267993302</v>
       </c>
       <c r="T39" t="n">
         <v>1.25502616937092</v>
@@ -34044,43 +34044,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H40" t="n">
-        <v>2.320877163815705</v>
+        <v>2.320877163815706</v>
       </c>
       <c r="I40" t="n">
-        <v>7.850165294378681</v>
+        <v>7.850165294378683</v>
       </c>
       <c r="J40" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K40" t="n">
-        <v>30.32802674188618</v>
+        <v>30.32802674188619</v>
       </c>
       <c r="L40" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M40" t="n">
-        <v>40.91910525120058</v>
+        <v>40.9191052512006</v>
       </c>
       <c r="N40" t="n">
-        <v>39.9461403870243</v>
+        <v>39.94614038702431</v>
       </c>
       <c r="O40" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P40" t="n">
-        <v>31.5715233000042</v>
+        <v>31.57152330000421</v>
       </c>
       <c r="Q40" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R40" t="n">
-        <v>11.73727858101479</v>
+        <v>11.7372785810148</v>
       </c>
       <c r="S40" t="n">
-        <v>4.549204011282927</v>
+        <v>4.549204011282928</v>
       </c>
       <c r="T40" t="n">
-        <v>1.1153499662509</v>
+        <v>1.115349966250901</v>
       </c>
       <c r="U40" t="n">
         <v>0.01423851020745832</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.5819424607403392</v>
       </c>
       <c r="H41" t="n">
-        <v>5.959818226056999</v>
+        <v>5.959818226057</v>
       </c>
       <c r="I41" t="n">
-        <v>22.43533671769194</v>
+        <v>22.43533671769195</v>
       </c>
       <c r="J41" t="n">
-        <v>49.3916389272604</v>
+        <v>49.39163892726041</v>
       </c>
       <c r="K41" t="n">
-        <v>74.02526329039897</v>
+        <v>74.02526329039898</v>
       </c>
       <c r="L41" t="n">
-        <v>91.83488487328114</v>
+        <v>91.83488487328115</v>
       </c>
       <c r="M41" t="n">
-        <v>102.1840041094721</v>
+        <v>102.1840041094722</v>
       </c>
       <c r="N41" t="n">
-        <v>103.8374481260506</v>
+        <v>103.8374481260507</v>
       </c>
       <c r="O41" t="n">
-        <v>98.05075778206388</v>
+        <v>98.0507577820639</v>
       </c>
       <c r="P41" t="n">
-        <v>83.68405328253675</v>
+        <v>83.68405328253677</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.84323890727333</v>
+        <v>62.84323890727335</v>
       </c>
       <c r="R41" t="n">
         <v>36.55544309948036</v>
@@ -34162,7 +34162,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.04655539685922713</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,25 +34208,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J42" t="n">
-        <v>29.41732177847551</v>
+        <v>29.41732177847552</v>
       </c>
       <c r="K42" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L42" t="n">
-        <v>67.60617030980131</v>
+        <v>67.60617030980133</v>
       </c>
       <c r="M42" t="n">
-        <v>78.89321197449189</v>
+        <v>78.8932119744919</v>
       </c>
       <c r="N42" t="n">
-        <v>80.9812805413778</v>
+        <v>80.98128054137781</v>
       </c>
       <c r="O42" t="n">
-        <v>74.08205071802428</v>
+        <v>74.08205071802429</v>
       </c>
       <c r="P42" t="n">
-        <v>59.45737689017533</v>
+        <v>59.45737689017534</v>
       </c>
       <c r="Q42" t="n">
         <v>39.74568186438658</v>
@@ -34235,7 +34235,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S42" t="n">
-        <v>5.7834992679933</v>
+        <v>5.783499267993302</v>
       </c>
       <c r="T42" t="n">
         <v>1.25502616937092</v>
@@ -34281,43 +34281,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H43" t="n">
-        <v>2.320877163815705</v>
+        <v>2.320877163815706</v>
       </c>
       <c r="I43" t="n">
-        <v>7.850165294378681</v>
+        <v>7.850165294378683</v>
       </c>
       <c r="J43" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K43" t="n">
-        <v>30.32802674188618</v>
+        <v>30.32802674188619</v>
       </c>
       <c r="L43" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M43" t="n">
-        <v>40.91910525120058</v>
+        <v>40.9191052512006</v>
       </c>
       <c r="N43" t="n">
-        <v>39.9461403870243</v>
+        <v>39.94614038702431</v>
       </c>
       <c r="O43" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P43" t="n">
-        <v>31.5715233000042</v>
+        <v>31.57152330000421</v>
       </c>
       <c r="Q43" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R43" t="n">
-        <v>11.73727858101479</v>
+        <v>11.7372785810148</v>
       </c>
       <c r="S43" t="n">
-        <v>4.549204011282927</v>
+        <v>4.549204011282928</v>
       </c>
       <c r="T43" t="n">
-        <v>1.1153499662509</v>
+        <v>1.115349966250901</v>
       </c>
       <c r="U43" t="n">
         <v>0.01423851020745832</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.5819424607403392</v>
       </c>
       <c r="H44" t="n">
-        <v>5.959818226056999</v>
+        <v>5.959818226057</v>
       </c>
       <c r="I44" t="n">
-        <v>22.43533671769194</v>
+        <v>22.43533671769195</v>
       </c>
       <c r="J44" t="n">
-        <v>49.3916389272604</v>
+        <v>49.39163892726041</v>
       </c>
       <c r="K44" t="n">
-        <v>74.02526329039897</v>
+        <v>74.02526329039898</v>
       </c>
       <c r="L44" t="n">
-        <v>91.83488487328114</v>
+        <v>91.83488487328115</v>
       </c>
       <c r="M44" t="n">
-        <v>102.1840041094721</v>
+        <v>102.1840041094722</v>
       </c>
       <c r="N44" t="n">
-        <v>103.8374481260506</v>
+        <v>103.8374481260507</v>
       </c>
       <c r="O44" t="n">
-        <v>98.05075778206388</v>
+        <v>98.0507577820639</v>
       </c>
       <c r="P44" t="n">
-        <v>83.68405328253675</v>
+        <v>83.68405328253677</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.84323890727333</v>
+        <v>62.84323890727335</v>
       </c>
       <c r="R44" t="n">
         <v>36.55544309948036</v>
@@ -34399,7 +34399,7 @@
         <v>2.547453121890836</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.04655539685922713</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,25 +34445,25 @@
         <v>10.72029970572549</v>
       </c>
       <c r="J45" t="n">
-        <v>29.41732177847551</v>
+        <v>29.41732177847552</v>
       </c>
       <c r="K45" t="n">
         <v>50.27888844148985</v>
       </c>
       <c r="L45" t="n">
-        <v>67.60617030980131</v>
+        <v>67.60617030980133</v>
       </c>
       <c r="M45" t="n">
-        <v>78.89321197449189</v>
+        <v>78.8932119744919</v>
       </c>
       <c r="N45" t="n">
-        <v>80.9812805413778</v>
+        <v>80.98128054137781</v>
       </c>
       <c r="O45" t="n">
-        <v>74.08205071802428</v>
+        <v>74.08205071802429</v>
       </c>
       <c r="P45" t="n">
-        <v>59.45737689017533</v>
+        <v>59.45737689017534</v>
       </c>
       <c r="Q45" t="n">
         <v>39.74568186438658</v>
@@ -34472,7 +34472,7 @@
         <v>19.33204619544587</v>
       </c>
       <c r="S45" t="n">
-        <v>5.7834992679933</v>
+        <v>5.783499267993302</v>
       </c>
       <c r="T45" t="n">
         <v>1.25502616937092</v>
@@ -34518,43 +34518,43 @@
         <v>0.2610393538034023</v>
       </c>
       <c r="H46" t="n">
-        <v>2.320877163815705</v>
+        <v>2.320877163815706</v>
       </c>
       <c r="I46" t="n">
-        <v>7.850165294378681</v>
+        <v>7.850165294378683</v>
       </c>
       <c r="J46" t="n">
         <v>18.45548231390054</v>
       </c>
       <c r="K46" t="n">
-        <v>30.32802674188618</v>
+        <v>30.32802674188619</v>
       </c>
       <c r="L46" t="n">
         <v>38.8094326554622</v>
       </c>
       <c r="M46" t="n">
-        <v>40.91910525120058</v>
+        <v>40.9191052512006</v>
       </c>
       <c r="N46" t="n">
-        <v>39.9461403870243</v>
+        <v>39.94614038702431</v>
       </c>
       <c r="O46" t="n">
         <v>36.89672611759364</v>
       </c>
       <c r="P46" t="n">
-        <v>31.5715233000042</v>
+        <v>31.57152330000421</v>
       </c>
       <c r="Q46" t="n">
         <v>21.85848625348308</v>
       </c>
       <c r="R46" t="n">
-        <v>11.73727858101479</v>
+        <v>11.7372785810148</v>
       </c>
       <c r="S46" t="n">
-        <v>4.549204011282927</v>
+        <v>4.549204011282928</v>
       </c>
       <c r="T46" t="n">
-        <v>1.1153499662509</v>
+        <v>1.115349966250901</v>
       </c>
       <c r="U46" t="n">
         <v>0.01423851020745832</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>82.88054011090124</v>
+        <v>79.53183141955158</v>
       </c>
       <c r="L20" t="n">
-        <v>42.08948184690377</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M20" t="n">
-        <v>82.88054011090124</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N20" t="n">
-        <v>82.88054011090124</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>28.67073045221765</v>
+        <v>28.67073045221766</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N21" t="n">
-        <v>50.861100967334</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O21" t="n">
-        <v>82.88054011090124</v>
+        <v>50.86110096733393</v>
       </c>
       <c r="P21" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.88054011090124</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.058534916003332</v>
+        <v>8.058534916003335</v>
       </c>
       <c r="L22" t="n">
-        <v>66.39945791577833</v>
+        <v>66.39945791577834</v>
       </c>
       <c r="M22" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N22" t="n">
-        <v>82.88054011090124</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O22" t="n">
-        <v>61.48185403163331</v>
+        <v>61.48185403163332</v>
       </c>
       <c r="P22" t="n">
-        <v>28.85008256489769</v>
+        <v>28.8500825648977</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>37.44234957264789</v>
       </c>
       <c r="K23" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M23" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>79.53183141955166</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>42.08948184690371</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>28.67073045221766</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>50.86110096733393</v>
       </c>
       <c r="L24" t="n">
-        <v>79.53183141955165</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>82.88054011090124</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.058534916003332</v>
+        <v>8.058534916003335</v>
       </c>
       <c r="L25" t="n">
-        <v>66.39945791577833</v>
+        <v>66.39945791577834</v>
       </c>
       <c r="M25" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N25" t="n">
-        <v>82.88054011090124</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O25" t="n">
-        <v>61.48185403163331</v>
+        <v>61.48185403163332</v>
       </c>
       <c r="P25" t="n">
-        <v>28.85008256489769</v>
+        <v>28.8500825648977</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>37.44234957264788</v>
+        <v>37.44234957264789</v>
       </c>
       <c r="K26" t="n">
-        <v>42.08948184690367</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L26" t="n">
-        <v>82.88054011090112</v>
+        <v>72.1174822650763</v>
       </c>
       <c r="M26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>52.85253969272854</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>82.88054011090112</v>
+        <v>79.53183141955158</v>
       </c>
       <c r="M27" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N27" t="n">
-        <v>50.8611009673339</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.058534916003332</v>
+        <v>8.058534916003335</v>
       </c>
       <c r="L28" t="n">
-        <v>66.39945791577833</v>
+        <v>66.39945791577834</v>
       </c>
       <c r="M28" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N28" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O28" t="n">
-        <v>61.48185403163331</v>
+        <v>61.48185403163332</v>
       </c>
       <c r="P28" t="n">
-        <v>28.85008256489769</v>
+        <v>28.8500825648977</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>37.44234957264788</v>
+        <v>37.44234957264789</v>
       </c>
       <c r="K29" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>72.11748226507632</v>
       </c>
       <c r="N29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>42.08948184690371</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>52.85253969272854</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>28.67073045221765</v>
+        <v>28.67073045221766</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>50.86110096733389</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88054011090112</v>
+        <v>50.86110096733393</v>
       </c>
       <c r="P30" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,22 +36990,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.058534916003332</v>
+        <v>8.058534916003335</v>
       </c>
       <c r="L31" t="n">
-        <v>66.39945791577833</v>
+        <v>66.39945791577834</v>
       </c>
       <c r="M31" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N31" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O31" t="n">
-        <v>61.48185403163331</v>
+        <v>61.48185403163332</v>
       </c>
       <c r="P31" t="n">
-        <v>28.85008256489769</v>
+        <v>28.8500825648977</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>37.44234957264788</v>
+        <v>37.44234957264789</v>
       </c>
       <c r="K32" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L32" t="n">
-        <v>82.88054011090112</v>
+        <v>72.1174822650763</v>
       </c>
       <c r="M32" t="n">
-        <v>42.08948184690371</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37084,10 +37084,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>52.85253969272854</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>28.67073045221766</v>
       </c>
       <c r="K33" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>50.86110096733393</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="P33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>79.53183141955155</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.058534916003332</v>
+        <v>8.058534916003335</v>
       </c>
       <c r="L34" t="n">
-        <v>66.39945791577833</v>
+        <v>66.39945791577834</v>
       </c>
       <c r="M34" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N34" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O34" t="n">
-        <v>61.48185403163331</v>
+        <v>61.48185403163332</v>
       </c>
       <c r="P34" t="n">
-        <v>28.85008256489769</v>
+        <v>28.8500825648977</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>37.44234957264788</v>
+        <v>37.44234957264789</v>
       </c>
       <c r="K35" t="n">
-        <v>42.08948184690367</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M35" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N35" t="n">
-        <v>82.88054011090112</v>
+        <v>72.11748226507632</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>52.85253969272854</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>28.67073045221765</v>
+        <v>28.67073045221766</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L36" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M36" t="n">
-        <v>50.86110096733389</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N36" t="n">
-        <v>82.88054011090112</v>
+        <v>50.86110096733396</v>
       </c>
       <c r="O36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.058534916003332</v>
+        <v>8.058534916003335</v>
       </c>
       <c r="L37" t="n">
-        <v>66.39945791577833</v>
+        <v>66.39945791577834</v>
       </c>
       <c r="M37" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N37" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O37" t="n">
-        <v>61.48185403163331</v>
+        <v>61.48185403163332</v>
       </c>
       <c r="P37" t="n">
-        <v>28.85008256489769</v>
+        <v>28.8500825648977</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>37.44234957264789</v>
       </c>
       <c r="K38" t="n">
-        <v>79.53183141955154</v>
+        <v>42.08948184690369</v>
       </c>
       <c r="L38" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M38" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="N38" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>28.67073045221765</v>
+        <v>28.67073045221766</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="L39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>50.8611009673339</v>
+        <v>50.86110096733393</v>
       </c>
       <c r="P39" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.058534916003332</v>
+        <v>8.058534916003335</v>
       </c>
       <c r="L40" t="n">
-        <v>66.39945791577833</v>
+        <v>66.39945791577834</v>
       </c>
       <c r="M40" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N40" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O40" t="n">
-        <v>61.48185403163331</v>
+        <v>61.48185403163332</v>
       </c>
       <c r="P40" t="n">
-        <v>28.85008256489769</v>
+        <v>28.8500825648977</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>37.44234957264788</v>
+        <v>37.44234957264789</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37789,16 +37789,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>72.11748226507629</v>
+        <v>72.1174822650763</v>
       </c>
       <c r="O41" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="P41" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="Q41" t="n">
-        <v>52.85253969272853</v>
+        <v>52.85253969272854</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>28.67073045221765</v>
+        <v>28.67073045221766</v>
       </c>
       <c r="K42" t="n">
-        <v>82.88054011090112</v>
+        <v>50.86110096733393</v>
       </c>
       <c r="L42" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="M42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>50.8611009673339</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.058534916003332</v>
+        <v>8.058534916003335</v>
       </c>
       <c r="L43" t="n">
-        <v>66.39945791577833</v>
+        <v>66.39945791577834</v>
       </c>
       <c r="M43" t="n">
         <v>80.50298221304118</v>
       </c>
       <c r="N43" t="n">
-        <v>82.88054011090111</v>
+        <v>82.88054011090114</v>
       </c>
       <c r="O43" t="n">
-        <v>61.48185403163331</v>
+        <v>61.48185403163332</v>
       </c>
       <c r="P43" t="n">
-        <v>28.85008256489769</v>
+        <v>28.8500825648977</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
